--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_9_16.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_9_16.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-76022.04869004292</v>
+        <v>-85589.71919321235</v>
       </c>
     </row>
     <row r="7">
@@ -1861,7 +1861,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>272.6207125031721</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1900,7 +1900,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>256.5237009191198</v>
       </c>
       <c r="V17" t="n">
         <v>358.9907805655117</v>
@@ -1912,7 +1912,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y17" t="n">
-        <v>175.525368209782</v>
+        <v>191.622379793835</v>
       </c>
     </row>
     <row r="18">
@@ -1973,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>49.60563018141206</v>
+        <v>49.60563018141188</v>
       </c>
       <c r="T18" t="n">
         <v>126.0091317304331</v>
@@ -1985,7 +1985,7 @@
         <v>197.1263427586206</v>
       </c>
       <c r="W18" t="n">
-        <v>183.4695267241379</v>
+        <v>183.4695267241388</v>
       </c>
       <c r="X18" t="n">
         <v>153.3187614035088</v>
@@ -2001,25 +2001,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>170.8360944016073</v>
+        <v>49.07403963532072</v>
       </c>
       <c r="D19" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E19" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>133.1999654356588</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2052,22 +2052,22 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>147.2540575406698</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>240.8720855447433</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>127.2870733102339</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W19" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y19" t="n">
         <v>225.1454739790328</v>
@@ -2080,13 +2080,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>45.33347963443964</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>418.185631856325</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>418.185631856325</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -2095,7 +2095,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>396.054118850051</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>272.6207125031721</v>
@@ -2134,7 +2134,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>212.0456433386444</v>
       </c>
       <c r="U20" t="n">
         <v>256.5237009191198</v>
@@ -2146,10 +2146,10 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>293.4930053723392</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2174,7 +2174,7 @@
         <v>82.55</v>
       </c>
       <c r="G21" t="n">
-        <v>83.81976830925512</v>
+        <v>83.81976830925504</v>
       </c>
       <c r="H21" t="n">
         <v>34.44698820166514</v>
@@ -2216,7 +2216,7 @@
         <v>126.0091317304331</v>
       </c>
       <c r="U21" t="n">
-        <v>174.5263742585036</v>
+        <v>174.5263742585045</v>
       </c>
       <c r="V21" t="n">
         <v>197.1263427586206</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>189.9004325317972</v>
+        <v>3.320849123036431</v>
       </c>
       <c r="C22" t="n">
         <v>170.8360944016073</v>
@@ -2256,7 +2256,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>133.1999654356588</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2292,22 +2292,22 @@
         <v>147.2540575406698</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>240.8720855447433</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W22" t="n">
-        <v>6.40131901921368</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X22" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2332,10 +2332,10 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>396.054118850051</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>272.6207125031721</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>52.5140367011384</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -2377,16 +2377,16 @@
         <v>256.5237009191198</v>
       </c>
       <c r="V23" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X23" t="n">
-        <v>202.3701561169729</v>
+        <v>244.3753310914676</v>
       </c>
       <c r="Y23" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2414,7 +2414,7 @@
         <v>83.81976830925504</v>
       </c>
       <c r="H24" t="n">
-        <v>34.44698820166514</v>
+        <v>34.44698820166587</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2447,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>49.60563018141139</v>
+        <v>49.60563018141188</v>
       </c>
       <c r="T24" t="n">
         <v>126.0091317304331</v>
@@ -2475,13 +2475,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>112.9455836125649</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>168.0604237117701</v>
@@ -2490,13 +2490,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
-        <v>163.3388892342509</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>133.1999654356588</v>
       </c>
       <c r="I25" t="n">
-        <v>69.83578017384922</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,25 +2526,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>147.2540575406698</v>
       </c>
       <c r="T25" t="n">
         <v>240.8720855447433</v>
       </c>
       <c r="U25" t="n">
-        <v>275.6161358490523</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>284.0859530482738</v>
+        <v>100.5845407465707</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="26">
@@ -2560,16 +2560,16 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>418.1856318563248</v>
+        <v>418.1856318563249</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>418.1856318563249</v>
       </c>
       <c r="F26" t="n">
-        <v>193.1405679170179</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>396.054118850051</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2611,19 +2611,19 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>256.5237009191198</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>382.3202739320326</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="27">
@@ -2684,13 +2684,13 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>49.60563018141206</v>
+        <v>49.60563018141188</v>
       </c>
       <c r="T27" t="n">
         <v>126.0091317304331</v>
       </c>
       <c r="U27" t="n">
-        <v>174.5263742585036</v>
+        <v>174.5263742585041</v>
       </c>
       <c r="V27" t="n">
         <v>197.1263427586206</v>
@@ -2715,25 +2715,25 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C28" t="n">
-        <v>170.8360944016073</v>
+        <v>137.9685787855549</v>
       </c>
       <c r="D28" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>163.3388892342509</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>133.1999654356588</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>69.83578017384922</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2766,22 +2766,22 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>104.478065202464</v>
+        <v>240.8720855447433</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>275.6161358490523</v>
       </c>
       <c r="V28" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="29">
@@ -2794,7 +2794,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>418.1856318563248</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -2806,10 +2806,10 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>396.054118850051</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>272.6207125031721</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,25 +2842,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>52.51403670113841</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>212.0456433386444</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>256.5237009191198</v>
       </c>
       <c r="V29" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W29" t="n">
-        <v>400.806900043077</v>
+        <v>377.1490434284245</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>141.908251445075</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2955,19 +2955,19 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>163.3388892342509</v>
       </c>
       <c r="H31" t="n">
-        <v>133.1999654356588</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3000,16 +3000,16 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>147.2540575406698</v>
+        <v>9.31979522761711</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>240.8720855447433</v>
       </c>
       <c r="U31" t="n">
-        <v>275.6161358490523</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>269.3061403695714</v>
@@ -3018,7 +3018,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y31" t="n">
-        <v>80.5942782130803</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3040,13 +3040,13 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>343.3202982137278</v>
       </c>
       <c r="G32" t="n">
         <v>396.054118850051</v>
       </c>
       <c r="H32" t="n">
-        <v>272.6207125031721</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>52.51403670113841</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>212.0456433386444</v>
@@ -3088,16 +3088,16 @@
         <v>256.5237009191198</v>
       </c>
       <c r="V32" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y32" t="n">
-        <v>74.14580723038803</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3186,16 +3186,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>189.9004325317972</v>
+        <v>60.10477724960543</v>
       </c>
       <c r="C34" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>174.9399834978613</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>147.2540575406698</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -3246,13 +3246,13 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X34" t="n">
-        <v>16.16448673103527</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y34" t="n">
         <v>225.1454739790328</v>
@@ -3268,10 +3268,10 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>418.1856318563248</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>418.1856318563248</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -3280,7 +3280,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>188.2260173735682</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3319,22 +3319,22 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>212.0456433386444</v>
       </c>
       <c r="U35" t="n">
         <v>256.5237009191198</v>
       </c>
       <c r="V35" t="n">
-        <v>358.9907805655117</v>
+        <v>317.9541921376113</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3362,7 +3362,7 @@
         <v>83.81976830925504</v>
       </c>
       <c r="H36" t="n">
-        <v>34.44698820166514</v>
+        <v>34.44698820166499</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3423,19 +3423,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>32.0432735284701</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3477,16 +3477,16 @@
         <v>147.2540575406698</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>240.8720855447433</v>
       </c>
       <c r="U37" t="n">
         <v>275.6161358490523</v>
       </c>
       <c r="V37" t="n">
-        <v>101.8986283163728</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W37" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>242.9378371199217</v>
@@ -3508,16 +3508,16 @@
         <v>418.1856318563248</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>418.1856318563248</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>340.0857051438853</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>396.054118850051</v>
+        <v>115.0487966897734</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3556,7 +3556,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>212.0456433386444</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>256.5237009191198</v>
@@ -3568,7 +3568,7 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3660,25 +3660,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F40" t="n">
-        <v>137.9685787855547</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>133.1999654356588</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3714,10 +3714,10 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>240.8720855447433</v>
+        <v>135.9397935733043</v>
       </c>
       <c r="U40" t="n">
-        <v>275.6161358490523</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>284.0859530482738</v>
@@ -3726,7 +3726,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y40" t="n">
         <v>225.1454739790328</v>
@@ -3754,7 +3754,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>324.6350067272859</v>
+        <v>377.1490434284245</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>52.51403670113841</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>212.0456433386444</v>
@@ -3836,7 +3836,7 @@
         <v>83.81976830925504</v>
       </c>
       <c r="H42" t="n">
-        <v>34.44698820166499</v>
+        <v>34.44698820166514</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3903,19 +3903,19 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
-        <v>121.8628659419791</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>163.3388892342509</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>133.1999654356588</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3957,16 +3957,16 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>225.1454739790328</v>
+        <v>70.27365533917393</v>
       </c>
     </row>
     <row r="44">
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>10.32570148490405</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -3988,7 +3988,7 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>354.068074536867</v>
       </c>
       <c r="G44" t="n">
         <v>396.054118850051</v>
@@ -4027,19 +4027,19 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>52.51403670113841</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>212.0456433386444</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>256.5237009191198</v>
       </c>
       <c r="V44" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -4134,16 +4134,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F46" t="n">
         <v>174.9399834978613</v>
@@ -4152,7 +4152,7 @@
         <v>163.3388892342509</v>
       </c>
       <c r="H46" t="n">
-        <v>40.56179159818561</v>
+        <v>133.1999654356588</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4188,22 +4188,22 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>240.8720855447433</v>
       </c>
       <c r="U46" t="n">
         <v>275.6161358490523</v>
       </c>
       <c r="V46" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>131.8120095625889</v>
       </c>
       <c r="Y46" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -5491,40 +5491,40 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>308.8293076224172</v>
+        <v>33.454850548506</v>
       </c>
       <c r="C17" t="n">
-        <v>308.8293076224172</v>
+        <v>33.454850548506</v>
       </c>
       <c r="D17" t="n">
-        <v>308.8293076224172</v>
+        <v>33.454850548506</v>
       </c>
       <c r="E17" t="n">
-        <v>308.8293076224172</v>
+        <v>33.454850548506</v>
       </c>
       <c r="F17" t="n">
-        <v>308.8293076224172</v>
+        <v>33.454850548506</v>
       </c>
       <c r="G17" t="n">
-        <v>308.8293076224172</v>
+        <v>33.454850548506</v>
       </c>
       <c r="H17" t="n">
-        <v>33.45485054850599</v>
+        <v>33.454850548506</v>
       </c>
       <c r="I17" t="n">
-        <v>83.79828774524245</v>
+        <v>83.79828774524189</v>
       </c>
       <c r="J17" t="n">
-        <v>195.529221607333</v>
+        <v>195.5292216073325</v>
       </c>
       <c r="K17" t="n">
-        <v>362.9849282099032</v>
+        <v>362.9849282099028</v>
       </c>
       <c r="L17" t="n">
-        <v>570.7285396968689</v>
+        <v>570.7285396968687</v>
       </c>
       <c r="M17" t="n">
-        <v>801.8833353847206</v>
+        <v>801.8833353847205</v>
       </c>
       <c r="N17" t="n">
         <v>1036.7784573317</v>
@@ -5533,34 +5533,34 @@
         <v>1258.583260144776</v>
       </c>
       <c r="P17" t="n">
-        <v>1447.888527710259</v>
+        <v>1447.88852771026</v>
       </c>
       <c r="Q17" t="n">
-        <v>1590.048899840627</v>
+        <v>1590.048899840628</v>
       </c>
       <c r="R17" t="n">
-        <v>1672.742527425299</v>
+        <v>1672.7425274253</v>
       </c>
       <c r="S17" t="n">
-        <v>1672.742527425299</v>
+        <v>1672.7425274253</v>
       </c>
       <c r="T17" t="n">
-        <v>1672.742527425299</v>
+        <v>1672.7425274253</v>
       </c>
       <c r="U17" t="n">
-        <v>1672.742527425299</v>
+        <v>1413.627678012048</v>
       </c>
       <c r="V17" t="n">
-        <v>1310.125577359126</v>
+        <v>1051.010727945874</v>
       </c>
       <c r="W17" t="n">
-        <v>905.2701227701591</v>
+        <v>646.1552733569074</v>
       </c>
       <c r="X17" t="n">
-        <v>486.1276593494698</v>
+        <v>227.0128099362181</v>
       </c>
       <c r="Y17" t="n">
-        <v>308.8293076224172</v>
+        <v>33.454850548506</v>
       </c>
     </row>
     <row r="18">
@@ -5576,61 +5576,61 @@
         <v>425.5107626718881</v>
       </c>
       <c r="D18" t="n">
-        <v>330.4204738184413</v>
+        <v>330.4204738184414</v>
       </c>
       <c r="E18" t="n">
-        <v>236.300059145395</v>
+        <v>236.3000591453951</v>
       </c>
       <c r="F18" t="n">
         <v>152.9162207615567</v>
       </c>
       <c r="G18" t="n">
-        <v>68.24978812594551</v>
+        <v>68.24978812594554</v>
       </c>
       <c r="H18" t="n">
-        <v>33.45485054850599</v>
+        <v>33.454850548506</v>
       </c>
       <c r="I18" t="n">
-        <v>83.76937108752902</v>
+        <v>83.76937108752905</v>
       </c>
       <c r="J18" t="n">
-        <v>150.3155498622651</v>
+        <v>474.8738748284775</v>
       </c>
       <c r="K18" t="n">
-        <v>264.0535687076974</v>
+        <v>605.2485493631997</v>
       </c>
       <c r="L18" t="n">
-        <v>416.9883711887014</v>
+        <v>758.1833518442038</v>
       </c>
       <c r="M18" t="n">
-        <v>595.456072215418</v>
+        <v>936.6510528709204</v>
       </c>
       <c r="N18" t="n">
-        <v>778.6472822410933</v>
+        <v>1119.842262896596</v>
       </c>
       <c r="O18" t="n">
-        <v>946.2314501067034</v>
+        <v>1287.426430762206</v>
       </c>
       <c r="P18" t="n">
-        <v>1097.834127233839</v>
+        <v>1421.927499955579</v>
       </c>
       <c r="Q18" t="n">
-        <v>1511.8379027716</v>
+        <v>1511.837902771601</v>
       </c>
       <c r="R18" t="n">
-        <v>1672.742527425299</v>
+        <v>1672.7425274253</v>
       </c>
       <c r="S18" t="n">
-        <v>1622.635830272358</v>
+        <v>1622.635830272359</v>
       </c>
       <c r="T18" t="n">
-        <v>1495.353879029496</v>
+        <v>1495.353879029497</v>
       </c>
       <c r="U18" t="n">
-        <v>1319.064612101715</v>
+        <v>1319.064612101716</v>
       </c>
       <c r="V18" t="n">
-        <v>1119.947094163714</v>
+        <v>1119.947094163715</v>
       </c>
       <c r="W18" t="n">
         <v>934.6243398969082</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>852.9050322832435</v>
+        <v>248.9025803523578</v>
       </c>
       <c r="C19" t="n">
-        <v>680.3433207664684</v>
+        <v>199.3328433469833</v>
       </c>
       <c r="D19" t="n">
-        <v>514.4653279679911</v>
+        <v>33.454850548506</v>
       </c>
       <c r="E19" t="n">
-        <v>344.7073242187284</v>
+        <v>33.454850548506</v>
       </c>
       <c r="F19" t="n">
-        <v>168.0002701804846</v>
+        <v>33.454850548506</v>
       </c>
       <c r="G19" t="n">
-        <v>168.0002701804846</v>
+        <v>33.454850548506</v>
       </c>
       <c r="H19" t="n">
-        <v>33.45485054850599</v>
+        <v>33.454850548506</v>
       </c>
       <c r="I19" t="n">
-        <v>33.45485054850599</v>
+        <v>33.454850548506</v>
       </c>
       <c r="J19" t="n">
         <v>161.7834697148434</v>
       </c>
       <c r="K19" t="n">
-        <v>230.3897930453123</v>
+        <v>505.1482476164479</v>
       </c>
       <c r="L19" t="n">
-        <v>318.1822665779013</v>
+        <v>769.1447895942091</v>
       </c>
       <c r="M19" t="n">
-        <v>732.1860421156629</v>
+        <v>861.7096435212258</v>
       </c>
       <c r="N19" t="n">
-        <v>1146.189817653424</v>
+        <v>952.0735121144796</v>
       </c>
       <c r="O19" t="n">
-        <v>1229.65547611525</v>
+        <v>1035.539170576305</v>
       </c>
       <c r="P19" t="n">
-        <v>1449.542946114066</v>
+        <v>1449.542946114067</v>
       </c>
       <c r="Q19" t="n">
-        <v>1667.182735391305</v>
+        <v>1667.182735391306</v>
       </c>
       <c r="R19" t="n">
-        <v>1672.742527425299</v>
+        <v>1672.7425274253</v>
       </c>
       <c r="S19" t="n">
-        <v>1672.742527425299</v>
+        <v>1524.001055161997</v>
       </c>
       <c r="T19" t="n">
-        <v>1672.742527425299</v>
+        <v>1280.695918248115</v>
       </c>
       <c r="U19" t="n">
-        <v>1672.742527425299</v>
+        <v>1280.695918248115</v>
       </c>
       <c r="V19" t="n">
-        <v>1544.169726101831</v>
+        <v>993.7404101185455</v>
       </c>
       <c r="W19" t="n">
-        <v>1272.143321688122</v>
+        <v>721.7140057048371</v>
       </c>
       <c r="X19" t="n">
-        <v>1272.143321688122</v>
+        <v>476.3222510382495</v>
       </c>
       <c r="Y19" t="n">
-        <v>1044.723651002231</v>
+        <v>248.9025803523578</v>
       </c>
     </row>
     <row r="20">
@@ -5728,37 +5728,37 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>708.8839731275193</v>
+        <v>1153.648765918023</v>
       </c>
       <c r="C20" t="n">
-        <v>708.8839731275193</v>
+        <v>731.2390367702203</v>
       </c>
       <c r="D20" t="n">
-        <v>708.8839731275193</v>
+        <v>308.8293076224172</v>
       </c>
       <c r="E20" t="n">
-        <v>708.8839731275193</v>
+        <v>308.8293076224172</v>
       </c>
       <c r="F20" t="n">
-        <v>708.8839731275193</v>
+        <v>308.8293076224172</v>
       </c>
       <c r="G20" t="n">
         <v>308.8293076224172</v>
       </c>
       <c r="H20" t="n">
-        <v>33.45485054850599</v>
+        <v>33.454850548506</v>
       </c>
       <c r="I20" t="n">
-        <v>83.79828774524239</v>
+        <v>83.79828774524192</v>
       </c>
       <c r="J20" t="n">
-        <v>195.5292216073329</v>
+        <v>195.5292216073325</v>
       </c>
       <c r="K20" t="n">
-        <v>362.9849282099032</v>
+        <v>362.9849282099029</v>
       </c>
       <c r="L20" t="n">
-        <v>570.7285396968689</v>
+        <v>570.7285396968687</v>
       </c>
       <c r="M20" t="n">
         <v>801.8833353847205</v>
@@ -5770,34 +5770,34 @@
         <v>1258.583260144776</v>
       </c>
       <c r="P20" t="n">
-        <v>1447.888527710259</v>
+        <v>1447.88852771026</v>
       </c>
       <c r="Q20" t="n">
-        <v>1590.048899840627</v>
+        <v>1590.048899840628</v>
       </c>
       <c r="R20" t="n">
-        <v>1672.742527425299</v>
+        <v>1672.7425274253</v>
       </c>
       <c r="S20" t="n">
-        <v>1672.742527425299</v>
+        <v>1672.7425274253</v>
       </c>
       <c r="T20" t="n">
-        <v>1672.742527425299</v>
+        <v>1458.555008901417</v>
       </c>
       <c r="U20" t="n">
-        <v>1413.627678012047</v>
+        <v>1199.440159488164</v>
       </c>
       <c r="V20" t="n">
-        <v>1413.627678012047</v>
+        <v>1199.440159488164</v>
       </c>
       <c r="W20" t="n">
-        <v>1413.627678012047</v>
+        <v>1199.440159488164</v>
       </c>
       <c r="X20" t="n">
-        <v>1117.170096827866</v>
+        <v>1199.440159488164</v>
       </c>
       <c r="Y20" t="n">
-        <v>708.8839731275193</v>
+        <v>1199.440159488164</v>
       </c>
     </row>
     <row r="21">
@@ -5807,58 +5807,58 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>531.9672238352459</v>
+        <v>531.9672238352458</v>
       </c>
       <c r="C21" t="n">
-        <v>425.5107626718882</v>
+        <v>425.5107626718881</v>
       </c>
       <c r="D21" t="n">
-        <v>330.4204738184415</v>
+        <v>330.4204738184414</v>
       </c>
       <c r="E21" t="n">
-        <v>236.3000591453952</v>
+        <v>236.3000591453951</v>
       </c>
       <c r="F21" t="n">
-        <v>152.9162207615568</v>
+        <v>152.9162207615567</v>
       </c>
       <c r="G21" t="n">
-        <v>68.24978812594551</v>
+        <v>68.24978812594554</v>
       </c>
       <c r="H21" t="n">
-        <v>33.45485054850599</v>
+        <v>33.454850548506</v>
       </c>
       <c r="I21" t="n">
-        <v>83.76937108752902</v>
+        <v>83.76937108752905</v>
       </c>
       <c r="J21" t="n">
-        <v>474.8738748284774</v>
+        <v>474.8738748284775</v>
       </c>
       <c r="K21" t="n">
-        <v>722.4213274575388</v>
+        <v>605.2485493631997</v>
       </c>
       <c r="L21" t="n">
-        <v>875.3561299385429</v>
+        <v>758.1833518442038</v>
       </c>
       <c r="M21" t="n">
-        <v>1053.82383096526</v>
+        <v>936.6510528709204</v>
       </c>
       <c r="N21" t="n">
-        <v>1237.015040990935</v>
+        <v>1119.842262896596</v>
       </c>
       <c r="O21" t="n">
-        <v>1404.599208856545</v>
+        <v>1287.426430762206</v>
       </c>
       <c r="P21" t="n">
-        <v>1539.100278049918</v>
+        <v>1421.927499955579</v>
       </c>
       <c r="Q21" t="n">
-        <v>1629.01068086594</v>
+        <v>1511.837902771601</v>
       </c>
       <c r="R21" t="n">
-        <v>1672.742527425299</v>
+        <v>1672.7425274253</v>
       </c>
       <c r="S21" t="n">
-        <v>1622.635830272358</v>
+        <v>1622.635830272359</v>
       </c>
       <c r="T21" t="n">
         <v>1495.353879029497</v>
@@ -5870,13 +5870,13 @@
         <v>1119.947094163714</v>
       </c>
       <c r="W21" t="n">
-        <v>934.6243398969084</v>
+        <v>934.6243398969082</v>
       </c>
       <c r="X21" t="n">
-        <v>779.7569041357883</v>
+        <v>779.7569041357882</v>
       </c>
       <c r="Y21" t="n">
-        <v>653.2711249150091</v>
+        <v>653.271124915009</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>852.9050322832435</v>
+        <v>718.3596126512649</v>
       </c>
       <c r="C22" t="n">
-        <v>680.3433207664684</v>
+        <v>545.7979011344898</v>
       </c>
       <c r="D22" t="n">
-        <v>514.4653279679911</v>
+        <v>379.9199083360126</v>
       </c>
       <c r="E22" t="n">
-        <v>344.7073242187284</v>
+        <v>210.1619045867498</v>
       </c>
       <c r="F22" t="n">
-        <v>168.0002701804846</v>
+        <v>33.454850548506</v>
       </c>
       <c r="G22" t="n">
-        <v>168.0002701804846</v>
+        <v>33.454850548506</v>
       </c>
       <c r="H22" t="n">
-        <v>33.45485054850599</v>
+        <v>33.454850548506</v>
       </c>
       <c r="I22" t="n">
-        <v>33.45485054850599</v>
+        <v>33.454850548506</v>
       </c>
       <c r="J22" t="n">
         <v>161.7834697148434</v>
       </c>
       <c r="K22" t="n">
-        <v>505.1482476164479</v>
+        <v>367.1873825661163</v>
       </c>
       <c r="L22" t="n">
-        <v>592.940721149037</v>
+        <v>781.191158103878</v>
       </c>
       <c r="M22" t="n">
-        <v>1006.944496686799</v>
+        <v>873.7560120308949</v>
       </c>
       <c r="N22" t="n">
-        <v>1097.308365280052</v>
+        <v>964.1198806241488</v>
       </c>
       <c r="O22" t="n">
-        <v>1180.774023741878</v>
+        <v>1378.123656161911</v>
       </c>
       <c r="P22" t="n">
-        <v>1449.542946114066</v>
+        <v>1449.542946114067</v>
       </c>
       <c r="Q22" t="n">
-        <v>1667.182735391305</v>
+        <v>1667.182735391306</v>
       </c>
       <c r="R22" t="n">
-        <v>1672.742527425299</v>
+        <v>1672.7425274253</v>
       </c>
       <c r="S22" t="n">
-        <v>1524.001055161996</v>
+        <v>1524.001055161997</v>
       </c>
       <c r="T22" t="n">
-        <v>1524.001055161996</v>
+        <v>1280.695918248115</v>
       </c>
       <c r="U22" t="n">
-        <v>1524.001055161996</v>
+        <v>1280.695918248115</v>
       </c>
       <c r="V22" t="n">
-        <v>1524.001055161996</v>
+        <v>993.7404101185455</v>
       </c>
       <c r="W22" t="n">
-        <v>1517.53507635471</v>
+        <v>721.7140057048371</v>
       </c>
       <c r="X22" t="n">
-        <v>1272.143321688122</v>
+        <v>721.7140057048371</v>
       </c>
       <c r="Y22" t="n">
-        <v>1044.723651002231</v>
+        <v>721.7140057048371</v>
       </c>
     </row>
     <row r="23">
@@ -5965,28 +5965,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>33.45485054850597</v>
+        <v>708.8839731275193</v>
       </c>
       <c r="C23" t="n">
-        <v>33.45485054850597</v>
+        <v>708.8839731275193</v>
       </c>
       <c r="D23" t="n">
-        <v>33.45485054850597</v>
+        <v>708.8839731275193</v>
       </c>
       <c r="E23" t="n">
-        <v>33.45485054850597</v>
+        <v>708.8839731275193</v>
       </c>
       <c r="F23" t="n">
-        <v>33.45485054850597</v>
+        <v>708.8839731275193</v>
       </c>
       <c r="G23" t="n">
-        <v>33.45485054850597</v>
+        <v>308.8293076224172</v>
       </c>
       <c r="H23" t="n">
-        <v>33.45485054850597</v>
+        <v>33.454850548506</v>
       </c>
       <c r="I23" t="n">
-        <v>83.79828774524185</v>
+        <v>83.79828774524189</v>
       </c>
       <c r="J23" t="n">
         <v>195.5292216073325</v>
@@ -5995,10 +5995,10 @@
         <v>362.9849282099029</v>
       </c>
       <c r="L23" t="n">
-        <v>570.7285396968684</v>
+        <v>570.7285396968687</v>
       </c>
       <c r="M23" t="n">
-        <v>801.88333538472</v>
+        <v>801.8833353847205</v>
       </c>
       <c r="N23" t="n">
         <v>1036.7784573317</v>
@@ -6007,34 +6007,34 @@
         <v>1258.583260144776</v>
       </c>
       <c r="P23" t="n">
-        <v>1447.888527710259</v>
+        <v>1447.88852771026</v>
       </c>
       <c r="Q23" t="n">
-        <v>1590.048899840627</v>
+        <v>1590.048899840628</v>
       </c>
       <c r="R23" t="n">
-        <v>1672.742527425299</v>
+        <v>1672.7425274253</v>
       </c>
       <c r="S23" t="n">
-        <v>1672.742527425299</v>
+        <v>1619.698045908999</v>
       </c>
       <c r="T23" t="n">
-        <v>1672.742527425299</v>
+        <v>1619.698045908999</v>
       </c>
       <c r="U23" t="n">
-        <v>1413.627678012046</v>
+        <v>1360.583196495746</v>
       </c>
       <c r="V23" t="n">
-        <v>1051.010727945873</v>
+        <v>1360.583196495746</v>
       </c>
       <c r="W23" t="n">
-        <v>646.155273356906</v>
+        <v>955.7277419067796</v>
       </c>
       <c r="X23" t="n">
-        <v>441.7409742488526</v>
+        <v>708.8839731275193</v>
       </c>
       <c r="Y23" t="n">
-        <v>33.45485054850597</v>
+        <v>708.8839731275193</v>
       </c>
     </row>
     <row r="24">
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>531.9672238352458</v>
+        <v>531.9672238352466</v>
       </c>
       <c r="C24" t="n">
-        <v>425.5107626718881</v>
+        <v>425.5107626718889</v>
       </c>
       <c r="D24" t="n">
-        <v>330.4204738184413</v>
+        <v>330.4204738184421</v>
       </c>
       <c r="E24" t="n">
-        <v>236.300059145395</v>
+        <v>236.3000591453958</v>
       </c>
       <c r="F24" t="n">
-        <v>152.9162207615567</v>
+        <v>152.9162207615574</v>
       </c>
       <c r="G24" t="n">
-        <v>68.24978812594551</v>
+        <v>68.24978812594628</v>
       </c>
       <c r="H24" t="n">
-        <v>33.45485054850597</v>
+        <v>33.454850548506</v>
       </c>
       <c r="I24" t="n">
-        <v>83.769371087529</v>
+        <v>83.76937108752905</v>
       </c>
       <c r="J24" t="n">
-        <v>150.315549862265</v>
+        <v>474.8738748284775</v>
       </c>
       <c r="K24" t="n">
-        <v>264.0535687076973</v>
+        <v>588.6118936739098</v>
       </c>
       <c r="L24" t="n">
-        <v>416.9883711887014</v>
+        <v>741.5466961549139</v>
       </c>
       <c r="M24" t="n">
-        <v>595.456072215418</v>
+        <v>920.0143971816306</v>
       </c>
       <c r="N24" t="n">
-        <v>778.6472822410933</v>
+        <v>1103.205607207306</v>
       </c>
       <c r="O24" t="n">
-        <v>946.2314501067034</v>
+        <v>1270.789775072916</v>
       </c>
       <c r="P24" t="n">
-        <v>1097.834127233838</v>
+        <v>1405.29084426629</v>
       </c>
       <c r="Q24" t="n">
-        <v>1511.8379027716</v>
+        <v>1511.837902771601</v>
       </c>
       <c r="R24" t="n">
-        <v>1672.742527425299</v>
+        <v>1672.7425274253</v>
       </c>
       <c r="S24" t="n">
-        <v>1622.635830272358</v>
+        <v>1622.635830272359</v>
       </c>
       <c r="T24" t="n">
-        <v>1495.353879029496</v>
+        <v>1495.353879029497</v>
       </c>
       <c r="U24" t="n">
-        <v>1319.064612101715</v>
+        <v>1319.064612101716</v>
       </c>
       <c r="V24" t="n">
-        <v>1119.947094163714</v>
+        <v>1119.947094163715</v>
       </c>
       <c r="W24" t="n">
-        <v>934.6243398969082</v>
+        <v>934.6243398969091</v>
       </c>
       <c r="X24" t="n">
-        <v>779.7569041357882</v>
+        <v>779.756904135789</v>
       </c>
       <c r="Y24" t="n">
-        <v>653.271124915009</v>
+        <v>653.2711249150098</v>
       </c>
     </row>
     <row r="25">
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>864.0817451605822</v>
+        <v>514.4653279679912</v>
       </c>
       <c r="C25" t="n">
-        <v>864.0817451605822</v>
+        <v>514.4653279679912</v>
       </c>
       <c r="D25" t="n">
-        <v>749.9952970670822</v>
+        <v>514.4653279679912</v>
       </c>
       <c r="E25" t="n">
-        <v>580.2372933178194</v>
+        <v>344.7073242187284</v>
       </c>
       <c r="F25" t="n">
-        <v>403.5302392795757</v>
+        <v>168.0002701804846</v>
       </c>
       <c r="G25" t="n">
-        <v>238.5414622752818</v>
+        <v>168.0002701804846</v>
       </c>
       <c r="H25" t="n">
-        <v>103.9960426433032</v>
+        <v>33.454850548506</v>
       </c>
       <c r="I25" t="n">
-        <v>33.45485054850597</v>
+        <v>33.454850548506</v>
       </c>
       <c r="J25" t="n">
         <v>161.7834697148434</v>
@@ -6153,46 +6153,46 @@
         <v>505.1482476164479</v>
       </c>
       <c r="L25" t="n">
-        <v>769.1447895942083</v>
+        <v>790.2903535690692</v>
       </c>
       <c r="M25" t="n">
-        <v>861.7096435212251</v>
+        <v>1204.294129106831</v>
       </c>
       <c r="N25" t="n">
-        <v>952.0735121144787</v>
+        <v>1294.657997700085</v>
       </c>
       <c r="O25" t="n">
-        <v>1035.539170576304</v>
+        <v>1378.123656161911</v>
       </c>
       <c r="P25" t="n">
-        <v>1449.542946114066</v>
+        <v>1449.542946114067</v>
       </c>
       <c r="Q25" t="n">
-        <v>1667.182735391305</v>
+        <v>1667.182735391306</v>
       </c>
       <c r="R25" t="n">
-        <v>1672.742527425299</v>
+        <v>1672.7425274253</v>
       </c>
       <c r="S25" t="n">
-        <v>1672.742527425299</v>
+        <v>1524.001055161997</v>
       </c>
       <c r="T25" t="n">
-        <v>1429.437390511417</v>
+        <v>1280.695918248115</v>
       </c>
       <c r="U25" t="n">
-        <v>1151.037253290152</v>
+        <v>1280.695918248115</v>
       </c>
       <c r="V25" t="n">
-        <v>864.0817451605822</v>
+        <v>1179.095372039458</v>
       </c>
       <c r="W25" t="n">
-        <v>864.0817451605822</v>
+        <v>1179.095372039458</v>
       </c>
       <c r="X25" t="n">
-        <v>864.0817451605822</v>
+        <v>933.7036173728702</v>
       </c>
       <c r="Y25" t="n">
-        <v>864.0817451605822</v>
+        <v>706.2839466869784</v>
       </c>
     </row>
     <row r="26">
@@ -6202,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1051.010727945873</v>
+        <v>878.2743088441119</v>
       </c>
       <c r="C26" t="n">
-        <v>1051.010727945873</v>
+        <v>878.2743088441119</v>
       </c>
       <c r="D26" t="n">
-        <v>628.6009987980706</v>
+        <v>455.864579696309</v>
       </c>
       <c r="E26" t="n">
-        <v>628.6009987980706</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="F26" t="n">
-        <v>433.509516053608</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="G26" t="n">
         <v>33.45485054850599</v>
@@ -6223,19 +6223,19 @@
         <v>33.45485054850599</v>
       </c>
       <c r="I26" t="n">
-        <v>83.79828774524243</v>
+        <v>83.79828774524189</v>
       </c>
       <c r="J26" t="n">
-        <v>195.529221607333</v>
+        <v>195.5292216073324</v>
       </c>
       <c r="K26" t="n">
-        <v>362.9849282099033</v>
+        <v>362.9849282099028</v>
       </c>
       <c r="L26" t="n">
-        <v>570.7285396968691</v>
+        <v>570.7285396968684</v>
       </c>
       <c r="M26" t="n">
-        <v>801.8833353847207</v>
+        <v>801.8833353847202</v>
       </c>
       <c r="N26" t="n">
         <v>1036.7784573317</v>
@@ -6244,34 +6244,34 @@
         <v>1258.583260144776</v>
       </c>
       <c r="P26" t="n">
-        <v>1447.88852771026</v>
+        <v>1447.888527710259</v>
       </c>
       <c r="Q26" t="n">
         <v>1590.048899840628</v>
       </c>
       <c r="R26" t="n">
-        <v>1672.742527425299</v>
+        <v>1672.7425274253</v>
       </c>
       <c r="S26" t="n">
-        <v>1672.742527425299</v>
+        <v>1672.7425274253</v>
       </c>
       <c r="T26" t="n">
-        <v>1672.742527425299</v>
+        <v>1672.7425274253</v>
       </c>
       <c r="U26" t="n">
-        <v>1413.627678012047</v>
+        <v>1672.7425274253</v>
       </c>
       <c r="V26" t="n">
-        <v>1051.010727945873</v>
+        <v>1672.7425274253</v>
       </c>
       <c r="W26" t="n">
-        <v>1051.010727945873</v>
+        <v>1672.7425274253</v>
       </c>
       <c r="X26" t="n">
-        <v>1051.010727945873</v>
+        <v>1286.560432544459</v>
       </c>
       <c r="Y26" t="n">
-        <v>1051.010727945873</v>
+        <v>878.2743088441119</v>
       </c>
     </row>
     <row r="27">
@@ -6287,55 +6287,55 @@
         <v>425.5107626718881</v>
       </c>
       <c r="D27" t="n">
-        <v>330.4204738184413</v>
+        <v>330.4204738184414</v>
       </c>
       <c r="E27" t="n">
-        <v>236.300059145395</v>
+        <v>236.3000591453951</v>
       </c>
       <c r="F27" t="n">
         <v>152.9162207615567</v>
       </c>
       <c r="G27" t="n">
-        <v>68.24978812594551</v>
+        <v>68.24978812594553</v>
       </c>
       <c r="H27" t="n">
         <v>33.45485054850599</v>
       </c>
       <c r="I27" t="n">
-        <v>83.76937108752902</v>
+        <v>83.76937108752904</v>
       </c>
       <c r="J27" t="n">
-        <v>191.2447738254375</v>
+        <v>474.8738748284774</v>
       </c>
       <c r="K27" t="n">
-        <v>605.2485493631991</v>
+        <v>588.6118936739097</v>
       </c>
       <c r="L27" t="n">
-        <v>758.1833518442032</v>
+        <v>741.5466961549138</v>
       </c>
       <c r="M27" t="n">
-        <v>936.6510528709197</v>
+        <v>920.0143971816304</v>
       </c>
       <c r="N27" t="n">
-        <v>1119.842262896595</v>
+        <v>1103.205607207306</v>
       </c>
       <c r="O27" t="n">
-        <v>1287.426430762205</v>
+        <v>1270.789775072916</v>
       </c>
       <c r="P27" t="n">
-        <v>1421.927499955579</v>
+        <v>1405.29084426629</v>
       </c>
       <c r="Q27" t="n">
-        <v>1511.8379027716</v>
+        <v>1629.01068086594</v>
       </c>
       <c r="R27" t="n">
-        <v>1672.742527425299</v>
+        <v>1672.7425274253</v>
       </c>
       <c r="S27" t="n">
         <v>1622.635830272358</v>
       </c>
       <c r="T27" t="n">
-        <v>1495.353879029496</v>
+        <v>1495.353879029497</v>
       </c>
       <c r="U27" t="n">
         <v>1319.064612101715</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1088.435001382335</v>
+        <v>172.8170513419958</v>
       </c>
       <c r="C28" t="n">
-        <v>915.8732898655595</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="D28" t="n">
-        <v>749.9952970670822</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="E28" t="n">
-        <v>580.2372933178194</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="F28" t="n">
-        <v>403.5302392795757</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="G28" t="n">
-        <v>238.5414622752818</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="H28" t="n">
-        <v>103.9960426433032</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="I28" t="n">
         <v>33.45485054850599</v>
       </c>
       <c r="J28" t="n">
-        <v>75.20378455015359</v>
+        <v>75.2037845501536</v>
       </c>
       <c r="K28" t="n">
-        <v>143.8101078806224</v>
+        <v>143.8101078806225</v>
       </c>
       <c r="L28" t="n">
-        <v>231.6025814132115</v>
+        <v>557.8138834183841</v>
       </c>
       <c r="M28" t="n">
-        <v>324.1674353402283</v>
+        <v>650.3787373454009</v>
       </c>
       <c r="N28" t="n">
-        <v>738.1712108779898</v>
+        <v>1064.382512883162</v>
       </c>
       <c r="O28" t="n">
-        <v>1152.174986415751</v>
+        <v>1478.386288420924</v>
       </c>
       <c r="P28" t="n">
-        <v>1566.178761953513</v>
+        <v>1617.735720978399</v>
       </c>
       <c r="Q28" t="n">
-        <v>1667.182735391305</v>
+        <v>1667.182735391306</v>
       </c>
       <c r="R28" t="n">
-        <v>1672.742527425299</v>
+        <v>1672.7425274253</v>
       </c>
       <c r="S28" t="n">
-        <v>1672.742527425299</v>
+        <v>1672.7425274253</v>
       </c>
       <c r="T28" t="n">
-        <v>1567.209128230891</v>
+        <v>1429.437390511418</v>
       </c>
       <c r="U28" t="n">
-        <v>1567.209128230891</v>
+        <v>1151.037253290153</v>
       </c>
       <c r="V28" t="n">
-        <v>1280.253620101322</v>
+        <v>864.0817451605831</v>
       </c>
       <c r="W28" t="n">
-        <v>1280.253620101322</v>
+        <v>592.0553407468747</v>
       </c>
       <c r="X28" t="n">
-        <v>1280.253620101322</v>
+        <v>592.0553407468747</v>
       </c>
       <c r="Y28" t="n">
-        <v>1280.253620101322</v>
+        <v>364.6356700609829</v>
       </c>
     </row>
     <row r="29">
@@ -6439,40 +6439,40 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>708.8839731275193</v>
+        <v>455.8645796963089</v>
       </c>
       <c r="C29" t="n">
-        <v>708.8839731275193</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="D29" t="n">
-        <v>708.8839731275193</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="E29" t="n">
-        <v>708.8839731275193</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="F29" t="n">
-        <v>708.8839731275193</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="G29" t="n">
-        <v>308.8293076224172</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="H29" t="n">
         <v>33.45485054850599</v>
       </c>
       <c r="I29" t="n">
-        <v>83.79828774524188</v>
+        <v>83.79828774524252</v>
       </c>
       <c r="J29" t="n">
-        <v>195.5292216073324</v>
+        <v>195.5292216073331</v>
       </c>
       <c r="K29" t="n">
-        <v>362.9849282099028</v>
+        <v>362.9849282099033</v>
       </c>
       <c r="L29" t="n">
-        <v>570.7285396968684</v>
+        <v>570.728539696869</v>
       </c>
       <c r="M29" t="n">
-        <v>801.8833353847201</v>
+        <v>801.8833353847206</v>
       </c>
       <c r="N29" t="n">
         <v>1036.7784573317</v>
@@ -6490,25 +6490,25 @@
         <v>1672.742527425299</v>
       </c>
       <c r="S29" t="n">
-        <v>1619.698045908998</v>
+        <v>1672.742527425299</v>
       </c>
       <c r="T29" t="n">
-        <v>1619.698045908998</v>
+        <v>1458.555008901416</v>
       </c>
       <c r="U29" t="n">
-        <v>1619.698045908998</v>
+        <v>1199.440159488164</v>
       </c>
       <c r="V29" t="n">
-        <v>1257.081095842824</v>
+        <v>836.8232094219902</v>
       </c>
       <c r="W29" t="n">
-        <v>852.2256412538577</v>
+        <v>455.8645796963089</v>
       </c>
       <c r="X29" t="n">
-        <v>852.2256412538577</v>
+        <v>455.8645796963089</v>
       </c>
       <c r="Y29" t="n">
-        <v>708.8839731275193</v>
+        <v>455.8645796963089</v>
       </c>
     </row>
     <row r="30">
@@ -6518,10 +6518,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>531.9672238352457</v>
+        <v>531.9672238352458</v>
       </c>
       <c r="C30" t="n">
-        <v>425.510762671888</v>
+        <v>425.5107626718881</v>
       </c>
       <c r="D30" t="n">
         <v>330.4204738184413</v>
@@ -6530,10 +6530,10 @@
         <v>236.300059145395</v>
       </c>
       <c r="F30" t="n">
-        <v>152.9162207615566</v>
+        <v>152.9162207615567</v>
       </c>
       <c r="G30" t="n">
-        <v>68.2497881259456</v>
+        <v>68.24978812594551</v>
       </c>
       <c r="H30" t="n">
         <v>33.45485054850599</v>
@@ -6542,25 +6542,25 @@
         <v>83.76937108752902</v>
       </c>
       <c r="J30" t="n">
-        <v>474.8738748284774</v>
+        <v>150.3155498622651</v>
       </c>
       <c r="K30" t="n">
-        <v>588.6118936739097</v>
+        <v>264.0535687076974</v>
       </c>
       <c r="L30" t="n">
-        <v>741.5466961549138</v>
+        <v>416.9883711887014</v>
       </c>
       <c r="M30" t="n">
-        <v>920.0143971816303</v>
+        <v>595.456072215418</v>
       </c>
       <c r="N30" t="n">
-        <v>1103.205607207306</v>
+        <v>778.6472822410933</v>
       </c>
       <c r="O30" t="n">
-        <v>1270.789775072916</v>
+        <v>946.2314501067034</v>
       </c>
       <c r="P30" t="n">
-        <v>1405.290844266289</v>
+        <v>1097.834127233838</v>
       </c>
       <c r="Q30" t="n">
         <v>1511.8379027716</v>
@@ -6584,10 +6584,10 @@
         <v>934.6243398969082</v>
       </c>
       <c r="X30" t="n">
-        <v>779.7569041357881</v>
+        <v>779.7569041357882</v>
       </c>
       <c r="Y30" t="n">
-        <v>653.2711249150088</v>
+        <v>653.271124915009</v>
       </c>
     </row>
     <row r="31">
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>168.0002701804846</v>
+        <v>710.7866781387837</v>
       </c>
       <c r="C31" t="n">
-        <v>168.0002701804846</v>
+        <v>710.7866781387837</v>
       </c>
       <c r="D31" t="n">
-        <v>168.0002701804846</v>
+        <v>544.9086853403064</v>
       </c>
       <c r="E31" t="n">
-        <v>168.0002701804846</v>
+        <v>375.1506815910436</v>
       </c>
       <c r="F31" t="n">
-        <v>168.0002701804846</v>
+        <v>198.4436275527998</v>
       </c>
       <c r="G31" t="n">
-        <v>168.0002701804846</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="H31" t="n">
         <v>33.45485054850599</v>
@@ -6621,25 +6621,25 @@
         <v>33.45485054850599</v>
       </c>
       <c r="J31" t="n">
-        <v>75.20378455015359</v>
+        <v>161.7834697148434</v>
       </c>
       <c r="K31" t="n">
-        <v>143.8101078806224</v>
+        <v>505.1482476164479</v>
       </c>
       <c r="L31" t="n">
-        <v>231.6025814132115</v>
+        <v>592.940721149037</v>
       </c>
       <c r="M31" t="n">
-        <v>375.7243943651139</v>
+        <v>1006.944496686799</v>
       </c>
       <c r="N31" t="n">
-        <v>789.7281699028755</v>
+        <v>1097.308365280052</v>
       </c>
       <c r="O31" t="n">
-        <v>1203.731945440637</v>
+        <v>1180.774023741878</v>
       </c>
       <c r="P31" t="n">
-        <v>1617.735720978399</v>
+        <v>1449.542946114066</v>
       </c>
       <c r="Q31" t="n">
         <v>1667.182735391305</v>
@@ -6648,25 +6648,25 @@
         <v>1672.742527425299</v>
       </c>
       <c r="S31" t="n">
-        <v>1524.001055161996</v>
+        <v>1663.328592851949</v>
       </c>
       <c r="T31" t="n">
-        <v>1524.001055161996</v>
+        <v>1420.023455938067</v>
       </c>
       <c r="U31" t="n">
-        <v>1245.600917940732</v>
+        <v>1420.023455938067</v>
       </c>
       <c r="V31" t="n">
-        <v>958.6454098111619</v>
+        <v>1420.023455938067</v>
       </c>
       <c r="W31" t="n">
-        <v>686.6190053974535</v>
+        <v>1147.997051524358</v>
       </c>
       <c r="X31" t="n">
-        <v>441.227250730866</v>
+        <v>902.6052968577708</v>
       </c>
       <c r="Y31" t="n">
-        <v>359.8188888994717</v>
+        <v>902.6052968577708</v>
       </c>
     </row>
     <row r="32">
@@ -6676,40 +6676,40 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>708.8839731275193</v>
+        <v>780.2976960674745</v>
       </c>
       <c r="C32" t="n">
-        <v>708.8839731275193</v>
+        <v>780.2976960674745</v>
       </c>
       <c r="D32" t="n">
-        <v>708.8839731275193</v>
+        <v>780.2976960674745</v>
       </c>
       <c r="E32" t="n">
-        <v>708.8839731275193</v>
+        <v>780.2976960674745</v>
       </c>
       <c r="F32" t="n">
-        <v>708.8839731275193</v>
+        <v>433.509516053608</v>
       </c>
       <c r="G32" t="n">
-        <v>308.8293076224172</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="H32" t="n">
         <v>33.45485054850599</v>
       </c>
       <c r="I32" t="n">
-        <v>83.79828774524199</v>
+        <v>83.79828774524188</v>
       </c>
       <c r="J32" t="n">
-        <v>195.5292216073326</v>
+        <v>195.5292216073324</v>
       </c>
       <c r="K32" t="n">
-        <v>362.9849282099029</v>
+        <v>362.9849282099028</v>
       </c>
       <c r="L32" t="n">
-        <v>570.7285396968687</v>
+        <v>570.7285396968684</v>
       </c>
       <c r="M32" t="n">
-        <v>801.8833353847202</v>
+        <v>801.8833353847201</v>
       </c>
       <c r="N32" t="n">
         <v>1036.7784573317</v>
@@ -6721,31 +6721,31 @@
         <v>1447.888527710259</v>
       </c>
       <c r="Q32" t="n">
-        <v>1590.048899840628</v>
+        <v>1590.048899840627</v>
       </c>
       <c r="R32" t="n">
-        <v>1672.7425274253</v>
+        <v>1672.742527425299</v>
       </c>
       <c r="S32" t="n">
-        <v>1619.698045908998</v>
+        <v>1672.742527425299</v>
       </c>
       <c r="T32" t="n">
-        <v>1405.510527385115</v>
+        <v>1458.555008901416</v>
       </c>
       <c r="U32" t="n">
-        <v>1146.395677971863</v>
+        <v>1199.440159488164</v>
       </c>
       <c r="V32" t="n">
-        <v>783.778727905689</v>
+        <v>1199.440159488164</v>
       </c>
       <c r="W32" t="n">
-        <v>783.778727905689</v>
+        <v>1199.440159488164</v>
       </c>
       <c r="X32" t="n">
-        <v>783.778727905689</v>
+        <v>780.2976960674745</v>
       </c>
       <c r="Y32" t="n">
-        <v>708.8839731275193</v>
+        <v>780.2976960674745</v>
       </c>
     </row>
     <row r="33">
@@ -6755,49 +6755,49 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>531.9672238352458</v>
+        <v>531.9672238352457</v>
       </c>
       <c r="C33" t="n">
-        <v>425.5107626718881</v>
+        <v>425.510762671888</v>
       </c>
       <c r="D33" t="n">
-        <v>330.4204738184414</v>
+        <v>330.4204738184412</v>
       </c>
       <c r="E33" t="n">
-        <v>236.3000591453951</v>
+        <v>236.3000591453949</v>
       </c>
       <c r="F33" t="n">
-        <v>152.9162207615567</v>
+        <v>152.9162207615566</v>
       </c>
       <c r="G33" t="n">
-        <v>68.24978812594553</v>
+        <v>68.24978812594551</v>
       </c>
       <c r="H33" t="n">
         <v>33.45485054850599</v>
       </c>
       <c r="I33" t="n">
-        <v>57.70569792707143</v>
+        <v>57.70569792707142</v>
       </c>
       <c r="J33" t="n">
-        <v>284.589935890366</v>
+        <v>448.8102016680198</v>
       </c>
       <c r="K33" t="n">
-        <v>398.3279547357983</v>
+        <v>562.5482205134522</v>
       </c>
       <c r="L33" t="n">
-        <v>551.2627572168024</v>
+        <v>715.4830229944563</v>
       </c>
       <c r="M33" t="n">
-        <v>729.730458243519</v>
+        <v>893.9507240211728</v>
       </c>
       <c r="N33" t="n">
-        <v>912.9216682691945</v>
+        <v>1077.141934046848</v>
       </c>
       <c r="O33" t="n">
-        <v>1080.505836134804</v>
+        <v>1244.726101912458</v>
       </c>
       <c r="P33" t="n">
-        <v>1215.006905328178</v>
+        <v>1379.227171105832</v>
       </c>
       <c r="Q33" t="n">
         <v>1629.01068086594</v>
@@ -6821,10 +6821,10 @@
         <v>934.6243398969082</v>
       </c>
       <c r="X33" t="n">
-        <v>779.7569041357882</v>
+        <v>779.7569041357881</v>
       </c>
       <c r="Y33" t="n">
-        <v>653.271124915009</v>
+        <v>653.2711249150088</v>
       </c>
     </row>
     <row r="34">
@@ -6834,13 +6834,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1088.435001382335</v>
+        <v>580.2372933178194</v>
       </c>
       <c r="C34" t="n">
-        <v>915.8732898655595</v>
+        <v>580.2372933178194</v>
       </c>
       <c r="D34" t="n">
-        <v>749.9952970670822</v>
+        <v>580.2372933178194</v>
       </c>
       <c r="E34" t="n">
         <v>580.2372933178194</v>
@@ -6864,46 +6864,46 @@
         <v>505.1482476164479</v>
       </c>
       <c r="L34" t="n">
-        <v>592.940721149037</v>
+        <v>769.1447895942089</v>
       </c>
       <c r="M34" t="n">
-        <v>685.5055750760537</v>
+        <v>861.7096435212255</v>
       </c>
       <c r="N34" t="n">
-        <v>1099.509350613815</v>
+        <v>952.0735121144794</v>
       </c>
       <c r="O34" t="n">
-        <v>1182.975009075641</v>
+        <v>1035.539170576305</v>
       </c>
       <c r="P34" t="n">
         <v>1449.542946114066</v>
       </c>
       <c r="Q34" t="n">
-        <v>1667.182735391306</v>
+        <v>1667.182735391305</v>
       </c>
       <c r="R34" t="n">
-        <v>1672.7425274253</v>
+        <v>1672.742527425299</v>
       </c>
       <c r="S34" t="n">
-        <v>1524.001055161997</v>
+        <v>1672.742527425299</v>
       </c>
       <c r="T34" t="n">
-        <v>1524.001055161997</v>
+        <v>1672.742527425299</v>
       </c>
       <c r="U34" t="n">
-        <v>1524.001055161997</v>
+        <v>1672.742527425299</v>
       </c>
       <c r="V34" t="n">
-        <v>1524.001055161997</v>
+        <v>1385.78701929573</v>
       </c>
       <c r="W34" t="n">
-        <v>1524.001055161997</v>
+        <v>1113.760614882021</v>
       </c>
       <c r="X34" t="n">
-        <v>1507.673290787214</v>
+        <v>868.3688602154339</v>
       </c>
       <c r="Y34" t="n">
-        <v>1280.253620101322</v>
+        <v>640.9491895295421</v>
       </c>
     </row>
     <row r="35">
@@ -6913,40 +6913,40 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>223.5821408248376</v>
+        <v>878.2743088441117</v>
       </c>
       <c r="C35" t="n">
-        <v>223.5821408248376</v>
+        <v>455.8645796963089</v>
       </c>
       <c r="D35" t="n">
-        <v>223.5821408248376</v>
+        <v>33.45485054850598</v>
       </c>
       <c r="E35" t="n">
-        <v>223.5821408248376</v>
+        <v>33.45485054850598</v>
       </c>
       <c r="F35" t="n">
-        <v>223.5821408248376</v>
+        <v>33.45485054850598</v>
       </c>
       <c r="G35" t="n">
-        <v>33.45485054850599</v>
+        <v>33.45485054850598</v>
       </c>
       <c r="H35" t="n">
-        <v>33.45485054850599</v>
+        <v>33.45485054850598</v>
       </c>
       <c r="I35" t="n">
-        <v>83.79828774524189</v>
+        <v>83.79828774524186</v>
       </c>
       <c r="J35" t="n">
-        <v>195.5292216073325</v>
+        <v>195.5292216073324</v>
       </c>
       <c r="K35" t="n">
-        <v>362.9849282099028</v>
+        <v>362.9849282099027</v>
       </c>
       <c r="L35" t="n">
         <v>570.7285396968684</v>
       </c>
       <c r="M35" t="n">
-        <v>801.8833353847201</v>
+        <v>801.88333538472</v>
       </c>
       <c r="N35" t="n">
         <v>1036.7784573317</v>
@@ -6967,22 +6967,22 @@
         <v>1672.742527425299</v>
       </c>
       <c r="T35" t="n">
-        <v>1672.742527425299</v>
+        <v>1458.555008901416</v>
       </c>
       <c r="U35" t="n">
-        <v>1413.627678012047</v>
+        <v>1199.440159488164</v>
       </c>
       <c r="V35" t="n">
-        <v>1051.010727945873</v>
+        <v>878.2743088441117</v>
       </c>
       <c r="W35" t="n">
-        <v>1051.010727945873</v>
+        <v>878.2743088441117</v>
       </c>
       <c r="X35" t="n">
-        <v>631.8682645251841</v>
+        <v>878.2743088441117</v>
       </c>
       <c r="Y35" t="n">
-        <v>223.5821408248376</v>
+        <v>878.2743088441117</v>
       </c>
     </row>
     <row r="36">
@@ -6992,49 +6992,49 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>531.9672238352458</v>
+        <v>531.9672238352457</v>
       </c>
       <c r="C36" t="n">
-        <v>425.5107626718881</v>
+        <v>425.510762671888</v>
       </c>
       <c r="D36" t="n">
-        <v>330.4204738184413</v>
+        <v>330.4204738184412</v>
       </c>
       <c r="E36" t="n">
-        <v>236.300059145395</v>
+        <v>236.3000591453949</v>
       </c>
       <c r="F36" t="n">
-        <v>152.9162207615567</v>
+        <v>152.9162207615565</v>
       </c>
       <c r="G36" t="n">
-        <v>68.24978812594551</v>
+        <v>68.24978812594537</v>
       </c>
       <c r="H36" t="n">
-        <v>33.45485054850599</v>
+        <v>33.45485054850598</v>
       </c>
       <c r="I36" t="n">
         <v>83.76937108752902</v>
       </c>
       <c r="J36" t="n">
-        <v>474.8738748284774</v>
+        <v>150.3155498622651</v>
       </c>
       <c r="K36" t="n">
-        <v>588.6118936739097</v>
+        <v>281.1551766414589</v>
       </c>
       <c r="L36" t="n">
-        <v>741.5466961549138</v>
+        <v>434.089979122463</v>
       </c>
       <c r="M36" t="n">
-        <v>920.0143971816303</v>
+        <v>612.5576801491795</v>
       </c>
       <c r="N36" t="n">
-        <v>1103.205607207306</v>
+        <v>795.748890174855</v>
       </c>
       <c r="O36" t="n">
-        <v>1270.789775072916</v>
+        <v>963.3330580404649</v>
       </c>
       <c r="P36" t="n">
-        <v>1405.290844266289</v>
+        <v>1097.834127233838</v>
       </c>
       <c r="Q36" t="n">
         <v>1511.8379027716</v>
@@ -7058,10 +7058,10 @@
         <v>934.6243398969082</v>
       </c>
       <c r="X36" t="n">
-        <v>779.7569041357882</v>
+        <v>779.7569041357881</v>
       </c>
       <c r="Y36" t="n">
-        <v>653.271124915009</v>
+        <v>653.2711249150088</v>
       </c>
     </row>
     <row r="37">
@@ -7071,46 +7071,46 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>206.0165620652811</v>
+        <v>242.5288475448004</v>
       </c>
       <c r="C37" t="n">
-        <v>33.45485054850599</v>
+        <v>242.5288475448004</v>
       </c>
       <c r="D37" t="n">
-        <v>33.45485054850599</v>
+        <v>242.5288475448004</v>
       </c>
       <c r="E37" t="n">
-        <v>33.45485054850599</v>
+        <v>210.1619045867498</v>
       </c>
       <c r="F37" t="n">
-        <v>33.45485054850599</v>
+        <v>33.45485054850598</v>
       </c>
       <c r="G37" t="n">
-        <v>33.45485054850599</v>
+        <v>33.45485054850598</v>
       </c>
       <c r="H37" t="n">
-        <v>33.45485054850599</v>
+        <v>33.45485054850598</v>
       </c>
       <c r="I37" t="n">
-        <v>33.45485054850599</v>
+        <v>33.45485054850598</v>
       </c>
       <c r="J37" t="n">
         <v>161.7834697148434</v>
       </c>
       <c r="K37" t="n">
-        <v>378.8579730919724</v>
+        <v>505.1482476164479</v>
       </c>
       <c r="L37" t="n">
-        <v>466.6504466245615</v>
+        <v>769.1447895942084</v>
       </c>
       <c r="M37" t="n">
-        <v>880.6542221623231</v>
+        <v>861.7096435212252</v>
       </c>
       <c r="N37" t="n">
-        <v>1294.657997700085</v>
+        <v>952.0735121144789</v>
       </c>
       <c r="O37" t="n">
-        <v>1378.12365616191</v>
+        <v>1035.539170576305</v>
       </c>
       <c r="P37" t="n">
         <v>1449.542946114066</v>
@@ -7125,22 +7125,22 @@
         <v>1524.001055161996</v>
       </c>
       <c r="T37" t="n">
-        <v>1524.001055161996</v>
+        <v>1280.695918248114</v>
       </c>
       <c r="U37" t="n">
-        <v>1245.600917940732</v>
+        <v>1002.295781026849</v>
       </c>
       <c r="V37" t="n">
-        <v>1142.673010550456</v>
+        <v>715.3402728972796</v>
       </c>
       <c r="W37" t="n">
-        <v>870.6466061367474</v>
+        <v>715.3402728972796</v>
       </c>
       <c r="X37" t="n">
-        <v>625.2548514701599</v>
+        <v>469.9485182306921</v>
       </c>
       <c r="Y37" t="n">
-        <v>397.8351807842682</v>
+        <v>242.5288475448004</v>
       </c>
     </row>
     <row r="38">
@@ -7150,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1199.440159488164</v>
+        <v>994.4852145913577</v>
       </c>
       <c r="C38" t="n">
-        <v>777.0304303403609</v>
+        <v>572.0754854435547</v>
       </c>
       <c r="D38" t="n">
-        <v>777.0304303403609</v>
+        <v>149.6657562957518</v>
       </c>
       <c r="E38" t="n">
-        <v>777.0304303403609</v>
+        <v>149.6657562957518</v>
       </c>
       <c r="F38" t="n">
-        <v>433.509516053608</v>
+        <v>149.6657562957518</v>
       </c>
       <c r="G38" t="n">
         <v>33.45485054850599</v>
@@ -7171,19 +7171,19 @@
         <v>33.45485054850599</v>
       </c>
       <c r="I38" t="n">
-        <v>83.79828774524186</v>
+        <v>83.79828774524179</v>
       </c>
       <c r="J38" t="n">
-        <v>195.5292216073324</v>
+        <v>195.5292216073323</v>
       </c>
       <c r="K38" t="n">
-        <v>362.9849282099027</v>
+        <v>362.9849282099026</v>
       </c>
       <c r="L38" t="n">
-        <v>570.7285396968684</v>
+        <v>570.7285396968683</v>
       </c>
       <c r="M38" t="n">
-        <v>801.8833353847201</v>
+        <v>801.88333538472</v>
       </c>
       <c r="N38" t="n">
         <v>1036.7784573317</v>
@@ -7204,22 +7204,22 @@
         <v>1672.742527425299</v>
       </c>
       <c r="T38" t="n">
-        <v>1458.555008901416</v>
+        <v>1672.742527425299</v>
       </c>
       <c r="U38" t="n">
-        <v>1199.440159488164</v>
+        <v>1413.627678012047</v>
       </c>
       <c r="V38" t="n">
-        <v>1199.440159488164</v>
+        <v>1413.627678012047</v>
       </c>
       <c r="W38" t="n">
-        <v>1199.440159488164</v>
+        <v>1413.627678012047</v>
       </c>
       <c r="X38" t="n">
-        <v>1199.440159488164</v>
+        <v>994.4852145913577</v>
       </c>
       <c r="Y38" t="n">
-        <v>1199.440159488164</v>
+        <v>994.4852145913577</v>
       </c>
     </row>
     <row r="39">
@@ -7253,25 +7253,25 @@
         <v>83.76937108752902</v>
       </c>
       <c r="J39" t="n">
-        <v>167.4171577960264</v>
+        <v>474.8738748284774</v>
       </c>
       <c r="K39" t="n">
-        <v>281.1551766414587</v>
+        <v>588.6118936739097</v>
       </c>
       <c r="L39" t="n">
-        <v>434.0899791224628</v>
+        <v>741.5466961549138</v>
       </c>
       <c r="M39" t="n">
-        <v>612.5576801491793</v>
+        <v>920.0143971816303</v>
       </c>
       <c r="N39" t="n">
-        <v>795.7488901748548</v>
+        <v>1103.205607207306</v>
       </c>
       <c r="O39" t="n">
-        <v>963.3330580404647</v>
+        <v>1270.789775072916</v>
       </c>
       <c r="P39" t="n">
-        <v>1097.834127233838</v>
+        <v>1405.290844266289</v>
       </c>
       <c r="Q39" t="n">
         <v>1511.8379027716</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>172.8170513419956</v>
+        <v>503.6362667282247</v>
       </c>
       <c r="C40" t="n">
-        <v>172.8170513419956</v>
+        <v>503.6362667282247</v>
       </c>
       <c r="D40" t="n">
-        <v>172.8170513419956</v>
+        <v>337.7582739297474</v>
       </c>
       <c r="E40" t="n">
-        <v>172.8170513419956</v>
+        <v>168.0002701804846</v>
       </c>
       <c r="F40" t="n">
-        <v>33.45485054850599</v>
+        <v>168.0002701804846</v>
       </c>
       <c r="G40" t="n">
-        <v>33.45485054850599</v>
+        <v>168.0002701804846</v>
       </c>
       <c r="H40" t="n">
         <v>33.45485054850599</v>
@@ -7335,19 +7335,19 @@
         <v>161.7834697148434</v>
       </c>
       <c r="K40" t="n">
-        <v>505.1482476164479</v>
+        <v>230.3897930453123</v>
       </c>
       <c r="L40" t="n">
-        <v>919.1520231542094</v>
+        <v>318.1822665779014</v>
       </c>
       <c r="M40" t="n">
-        <v>1204.29412910683</v>
+        <v>410.7471205049181</v>
       </c>
       <c r="N40" t="n">
-        <v>1294.657997700084</v>
+        <v>621.5353950385435</v>
       </c>
       <c r="O40" t="n">
-        <v>1378.12365616191</v>
+        <v>1035.539170576305</v>
       </c>
       <c r="P40" t="n">
         <v>1449.542946114066</v>
@@ -7362,22 +7362,22 @@
         <v>1672.742527425299</v>
       </c>
       <c r="T40" t="n">
-        <v>1429.437390511417</v>
+        <v>1535.429604623982</v>
       </c>
       <c r="U40" t="n">
-        <v>1151.037253290152</v>
+        <v>1535.429604623982</v>
       </c>
       <c r="V40" t="n">
-        <v>864.0817451605828</v>
+        <v>1248.474096494412</v>
       </c>
       <c r="W40" t="n">
-        <v>592.0553407468744</v>
+        <v>976.447692080704</v>
       </c>
       <c r="X40" t="n">
-        <v>592.0553407468744</v>
+        <v>731.0559374141164</v>
       </c>
       <c r="Y40" t="n">
-        <v>364.6356700609827</v>
+        <v>503.6362667282247</v>
       </c>
     </row>
     <row r="41">
@@ -7387,40 +7387,40 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>783.7787279056886</v>
+        <v>836.8232094219902</v>
       </c>
       <c r="C41" t="n">
-        <v>361.3689987578857</v>
+        <v>414.4134802741873</v>
       </c>
       <c r="D41" t="n">
-        <v>361.3689987578857</v>
+        <v>414.4134802741873</v>
       </c>
       <c r="E41" t="n">
-        <v>361.3689987578857</v>
+        <v>414.4134802741873</v>
       </c>
       <c r="F41" t="n">
-        <v>361.3689987578857</v>
+        <v>414.4134802741873</v>
       </c>
       <c r="G41" t="n">
-        <v>33.45485054850598</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="H41" t="n">
-        <v>33.45485054850598</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="I41" t="n">
-        <v>83.79828774524188</v>
+        <v>83.79828774524186</v>
       </c>
       <c r="J41" t="n">
         <v>195.5292216073324</v>
       </c>
       <c r="K41" t="n">
-        <v>362.9849282099028</v>
+        <v>362.9849282099027</v>
       </c>
       <c r="L41" t="n">
         <v>570.7285396968684</v>
       </c>
       <c r="M41" t="n">
-        <v>801.8833353847201</v>
+        <v>801.88333538472</v>
       </c>
       <c r="N41" t="n">
         <v>1036.7784573317</v>
@@ -7438,25 +7438,25 @@
         <v>1672.742527425299</v>
       </c>
       <c r="S41" t="n">
-        <v>1619.698045908998</v>
+        <v>1672.742527425299</v>
       </c>
       <c r="T41" t="n">
-        <v>1405.510527385115</v>
+        <v>1458.555008901416</v>
       </c>
       <c r="U41" t="n">
-        <v>1146.395677971862</v>
+        <v>1199.440159488164</v>
       </c>
       <c r="V41" t="n">
-        <v>783.7787279056886</v>
+        <v>836.8232094219902</v>
       </c>
       <c r="W41" t="n">
-        <v>783.7787279056886</v>
+        <v>836.8232094219902</v>
       </c>
       <c r="X41" t="n">
-        <v>783.7787279056886</v>
+        <v>836.8232094219902</v>
       </c>
       <c r="Y41" t="n">
-        <v>783.7787279056886</v>
+        <v>836.8232094219902</v>
       </c>
     </row>
     <row r="42">
@@ -7466,49 +7466,49 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>531.9672238352457</v>
+        <v>531.9672238352458</v>
       </c>
       <c r="C42" t="n">
-        <v>425.510762671888</v>
+        <v>425.5107626718881</v>
       </c>
       <c r="D42" t="n">
-        <v>330.4204738184412</v>
+        <v>330.4204738184413</v>
       </c>
       <c r="E42" t="n">
-        <v>236.3000591453949</v>
+        <v>236.300059145395</v>
       </c>
       <c r="F42" t="n">
-        <v>152.9162207615565</v>
+        <v>152.9162207615567</v>
       </c>
       <c r="G42" t="n">
-        <v>68.24978812594537</v>
+        <v>68.24978812594551</v>
       </c>
       <c r="H42" t="n">
-        <v>33.45485054850598</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="I42" t="n">
-        <v>57.70569792707142</v>
+        <v>83.76937108752902</v>
       </c>
       <c r="J42" t="n">
-        <v>448.8102016680198</v>
+        <v>474.8738748284774</v>
       </c>
       <c r="K42" t="n">
-        <v>605.2485493631989</v>
+        <v>588.6118936739097</v>
       </c>
       <c r="L42" t="n">
-        <v>758.183351844203</v>
+        <v>741.5466961549138</v>
       </c>
       <c r="M42" t="n">
-        <v>936.6510528709194</v>
+        <v>920.0143971816303</v>
       </c>
       <c r="N42" t="n">
-        <v>1119.842262896595</v>
+        <v>1103.205607207306</v>
       </c>
       <c r="O42" t="n">
-        <v>1287.426430762205</v>
+        <v>1270.789775072916</v>
       </c>
       <c r="P42" t="n">
-        <v>1421.927499955578</v>
+        <v>1405.290844266289</v>
       </c>
       <c r="Q42" t="n">
         <v>1511.8379027716</v>
@@ -7532,10 +7532,10 @@
         <v>934.6243398969082</v>
       </c>
       <c r="X42" t="n">
-        <v>779.7569041357881</v>
+        <v>779.7569041357882</v>
       </c>
       <c r="Y42" t="n">
-        <v>653.2711249150088</v>
+        <v>653.271124915009</v>
       </c>
     </row>
     <row r="43">
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>329.1103660470781</v>
+        <v>1017.893809287537</v>
       </c>
       <c r="C43" t="n">
-        <v>156.5486545303031</v>
+        <v>845.3320977707623</v>
       </c>
       <c r="D43" t="n">
-        <v>156.5486545303031</v>
+        <v>679.454104972285</v>
       </c>
       <c r="E43" t="n">
-        <v>156.5486545303031</v>
+        <v>509.6961012230222</v>
       </c>
       <c r="F43" t="n">
-        <v>33.45485054850598</v>
+        <v>332.9890471847784</v>
       </c>
       <c r="G43" t="n">
-        <v>33.45485054850598</v>
+        <v>168.0002701804846</v>
       </c>
       <c r="H43" t="n">
-        <v>33.45485054850598</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="I43" t="n">
-        <v>33.45485054850598</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="J43" t="n">
         <v>161.7834697148434</v>
@@ -7575,16 +7575,16 @@
         <v>505.1482476164479</v>
       </c>
       <c r="L43" t="n">
-        <v>781.1911581038777</v>
+        <v>592.940721149037</v>
       </c>
       <c r="M43" t="n">
-        <v>873.7560120308945</v>
+        <v>685.5055750760537</v>
       </c>
       <c r="N43" t="n">
-        <v>964.1198806241483</v>
+        <v>775.8694436693075</v>
       </c>
       <c r="O43" t="n">
-        <v>1378.12365616191</v>
+        <v>1035.539170576305</v>
       </c>
       <c r="P43" t="n">
         <v>1449.542946114066</v>
@@ -7605,16 +7605,16 @@
         <v>1280.695918248114</v>
       </c>
       <c r="V43" t="n">
-        <v>993.7404101185446</v>
+        <v>1280.695918248114</v>
       </c>
       <c r="W43" t="n">
-        <v>993.7404101185446</v>
+        <v>1280.695918248114</v>
       </c>
       <c r="X43" t="n">
-        <v>748.348655451957</v>
+        <v>1280.695918248114</v>
       </c>
       <c r="Y43" t="n">
-        <v>520.9289847660652</v>
+        <v>1209.712428006525</v>
       </c>
     </row>
     <row r="44">
@@ -7624,16 +7624,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>433.509516053608</v>
+        <v>791.1540357878172</v>
       </c>
       <c r="C44" t="n">
-        <v>433.509516053608</v>
+        <v>791.1540357878172</v>
       </c>
       <c r="D44" t="n">
-        <v>433.509516053608</v>
+        <v>791.1540357878172</v>
       </c>
       <c r="E44" t="n">
-        <v>433.509516053608</v>
+        <v>791.1540357878172</v>
       </c>
       <c r="F44" t="n">
         <v>433.509516053608</v>
@@ -7645,19 +7645,19 @@
         <v>33.45485054850599</v>
       </c>
       <c r="I44" t="n">
-        <v>83.79828774524233</v>
+        <v>83.79828774524186</v>
       </c>
       <c r="J44" t="n">
-        <v>195.5292216073329</v>
+        <v>195.5292216073324</v>
       </c>
       <c r="K44" t="n">
-        <v>362.9849282099032</v>
+        <v>362.9849282099027</v>
       </c>
       <c r="L44" t="n">
-        <v>570.7285396968689</v>
+        <v>570.7285396968684</v>
       </c>
       <c r="M44" t="n">
-        <v>801.8833353847202</v>
+        <v>801.88333538472</v>
       </c>
       <c r="N44" t="n">
         <v>1036.7784573317</v>
@@ -7675,25 +7675,25 @@
         <v>1672.742527425299</v>
       </c>
       <c r="S44" t="n">
-        <v>1619.698045908998</v>
+        <v>1672.742527425299</v>
       </c>
       <c r="T44" t="n">
-        <v>1619.698045908998</v>
+        <v>1458.555008901416</v>
       </c>
       <c r="U44" t="n">
-        <v>1619.698045908998</v>
+        <v>1199.440159488164</v>
       </c>
       <c r="V44" t="n">
-        <v>1257.081095842824</v>
+        <v>1199.440159488164</v>
       </c>
       <c r="W44" t="n">
-        <v>852.2256412538577</v>
+        <v>1199.440159488164</v>
       </c>
       <c r="X44" t="n">
-        <v>852.2256412538577</v>
+        <v>1199.440159488164</v>
       </c>
       <c r="Y44" t="n">
-        <v>443.9395175535111</v>
+        <v>791.1540357878172</v>
       </c>
     </row>
     <row r="45">
@@ -7718,7 +7718,7 @@
         <v>152.9162207615567</v>
       </c>
       <c r="G45" t="n">
-        <v>68.24978812594554</v>
+        <v>68.24978812594551</v>
       </c>
       <c r="H45" t="n">
         <v>33.45485054850599</v>
@@ -7730,22 +7730,22 @@
         <v>474.8738748284774</v>
       </c>
       <c r="K45" t="n">
-        <v>588.6118936739097</v>
+        <v>605.2485493631987</v>
       </c>
       <c r="L45" t="n">
-        <v>741.5466961549138</v>
+        <v>758.1833518442028</v>
       </c>
       <c r="M45" t="n">
-        <v>920.0143971816303</v>
+        <v>936.6510528709192</v>
       </c>
       <c r="N45" t="n">
-        <v>1103.205607207306</v>
+        <v>1119.842262896595</v>
       </c>
       <c r="O45" t="n">
-        <v>1270.789775072916</v>
+        <v>1287.426430762205</v>
       </c>
       <c r="P45" t="n">
-        <v>1405.290844266289</v>
+        <v>1421.927499955578</v>
       </c>
       <c r="Q45" t="n">
         <v>1511.8379027716</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>416.1221882558776</v>
+        <v>1017.893809287537</v>
       </c>
       <c r="C46" t="n">
-        <v>416.1221882558776</v>
+        <v>845.3320977707623</v>
       </c>
       <c r="D46" t="n">
-        <v>416.1221882558776</v>
+        <v>679.454104972285</v>
       </c>
       <c r="E46" t="n">
-        <v>416.1221882558776</v>
+        <v>509.6961012230222</v>
       </c>
       <c r="F46" t="n">
-        <v>239.4151342176338</v>
+        <v>332.9890471847784</v>
       </c>
       <c r="G46" t="n">
-        <v>74.42635721333994</v>
+        <v>168.0002701804846</v>
       </c>
       <c r="H46" t="n">
         <v>33.45485054850599</v>
@@ -7836,22 +7836,22 @@
         <v>1672.742527425299</v>
       </c>
       <c r="T46" t="n">
-        <v>1672.742527425299</v>
+        <v>1429.437390511417</v>
       </c>
       <c r="U46" t="n">
-        <v>1394.342390204034</v>
+        <v>1151.037253290152</v>
       </c>
       <c r="V46" t="n">
-        <v>1107.386882074465</v>
+        <v>1151.037253290152</v>
       </c>
       <c r="W46" t="n">
-        <v>835.3604776607565</v>
+        <v>1151.037253290152</v>
       </c>
       <c r="X46" t="n">
-        <v>835.3604776607565</v>
+        <v>1017.893809287537</v>
       </c>
       <c r="Y46" t="n">
-        <v>607.9408069748647</v>
+        <v>1017.893809287537</v>
       </c>
     </row>
   </sheetData>
@@ -9242,10 +9242,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>16.80470271645436</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9260,10 +9260,10 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>17.27435144824426</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>327.3670431532728</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>118.3563415094341</v>
@@ -9324,22 +9324,22 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>177.983907520376</v>
       </c>
       <c r="M19" t="n">
-        <v>324.6857794047928</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>326.9089969136442</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>149.9678586329899</v>
+        <v>346.0449349349549</v>
       </c>
       <c r="Q19" t="n">
         <v>169.8916917821538</v>
@@ -9482,7 +9482,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>135.161044225888</v>
+        <v>16.80470271645436</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9503,7 +9503,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9561,22 +9561,22 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K22" t="n">
-        <v>277.5337924960966</v>
+        <v>138.1793833543474</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>329.5063656617906</v>
       </c>
       <c r="M22" t="n">
-        <v>324.6857794047927</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>333.876885935289</v>
       </c>
       <c r="P22" t="n">
-        <v>199.3430630505377</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
         <v>169.8916917821538</v>
@@ -9716,7 +9716,7 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -9734,10 +9734,10 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>17.27435144824381</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>327.3670431532726</v>
+        <v>16.80470271645436</v>
       </c>
       <c r="R24" t="n">
         <v>118.3563415094341</v>
@@ -9801,10 +9801,10 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L25" t="n">
-        <v>177.9839075203751</v>
+        <v>199.3430630505377</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>324.6857794047928</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
@@ -9813,7 +9813,7 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>346.0449349349548</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
         <v>169.8916917821538</v>
@@ -9953,10 +9953,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>41.34265046785094</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>303.2987441336659</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9974,10 +9974,10 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>135.161044225888</v>
       </c>
       <c r="R27" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10038,22 +10038,22 @@
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>329.5063656617905</v>
       </c>
       <c r="M28" t="n">
         <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>326.9089969136442</v>
+        <v>326.9089969136443</v>
       </c>
       <c r="O28" t="n">
-        <v>333.8768859352889</v>
+        <v>333.8768859352888</v>
       </c>
       <c r="P28" t="n">
-        <v>346.0449349349548</v>
+        <v>68.61630566193799</v>
       </c>
       <c r="Q28" t="n">
-        <v>52.07773638877352</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10190,7 +10190,7 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -10208,10 +10208,10 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>17.27435144824403</v>
       </c>
       <c r="Q30" t="n">
-        <v>16.8047027164539</v>
+        <v>327.3670431532728</v>
       </c>
       <c r="R30" t="n">
         <v>118.3563415094341</v>
@@ -10269,28 +10269,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>52.07773638877336</v>
+        <v>324.6857794047927</v>
       </c>
       <c r="N31" t="n">
-        <v>326.9089969136442</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>333.8768859352889</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>346.0449349349549</v>
+        <v>199.3430630505377</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10427,7 +10427,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>161.9576355439985</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -10448,7 +10448,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>327.367043153273</v>
+        <v>161.4879868122086</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -10512,19 +10512,19 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>177.9839075203756</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>326.9089969136443</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>197.1198455416861</v>
+        <v>346.0449349349549</v>
       </c>
       <c r="Q34" t="n">
         <v>169.8916917821538</v>
@@ -10664,10 +10664,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>17.27435144824398</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10685,7 +10685,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>16.80470271645345</v>
+        <v>327.3670431532728</v>
       </c>
       <c r="R36" t="n">
         <v>118.3563415094341</v>
@@ -10746,22 +10746,22 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K37" t="n">
-        <v>149.96785863299</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>177.9839075203752</v>
       </c>
       <c r="M37" t="n">
-        <v>324.6857794047928</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>326.9089969136442</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>346.0449349349549</v>
       </c>
       <c r="Q37" t="n">
         <v>169.8916917821538</v>
@@ -10901,7 +10901,7 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
-        <v>17.27435144824375</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -10922,7 +10922,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>327.3670431532728</v>
+        <v>16.80470271645345</v>
       </c>
       <c r="R39" t="n">
         <v>118.3563415094341</v>
@@ -10983,22 +10983,22 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K40" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>329.5063656617904</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>194.5224767935398</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>121.6408140811834</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>333.8768859352889</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>346.0449349349549</v>
       </c>
       <c r="Q40" t="n">
         <v>169.8916917821538</v>
@@ -11135,13 +11135,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>43.13164530277447</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11159,7 +11159,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>16.80470271645345</v>
       </c>
       <c r="R42" t="n">
         <v>118.3563415094341</v>
@@ -11223,7 +11223,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L43" t="n">
-        <v>190.1519565200412</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
         <v>0</v>
@@ -11232,10 +11232,10 @@
         <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>333.8768859352888</v>
+        <v>177.9839075203756</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>346.0449349349549</v>
       </c>
       <c r="Q43" t="n">
         <v>169.8916917821538</v>
@@ -11378,7 +11378,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>16.80470271645345</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11396,7 +11396,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>16.80470271645392</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>118.3563415094341</v>
@@ -23749,7 +23749,7 @@
         <v>396.054118850051</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>272.6207125031721</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23782,13 +23782,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>52.51403670113842</v>
+        <v>52.5140367011384</v>
       </c>
       <c r="T17" t="n">
         <v>212.0456433386444</v>
       </c>
       <c r="U17" t="n">
-        <v>256.5237009191198</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -23800,7 +23800,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>228.677894253561</v>
+        <v>212.5808826695081</v>
       </c>
     </row>
     <row r="18">
@@ -23889,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>121.7620547662866</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
         <v>163.3388892342509</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>133.1999654356588</v>
       </c>
       <c r="I19" t="n">
-        <v>69.83578017384922</v>
+        <v>69.8357801738492</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,22 +23940,22 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>147.2540575406698</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>240.8720855447433</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>275.6161358490523</v>
       </c>
       <c r="V19" t="n">
-        <v>156.7988797380399</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -23968,13 +23968,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>422.0365747800587</v>
+        <v>376.703095145619</v>
       </c>
       <c r="C20" t="n">
-        <v>433.7610480884109</v>
+        <v>15.5754162320859</v>
       </c>
       <c r="D20" t="n">
-        <v>431.5506869772999</v>
+        <v>13.36505512097489</v>
       </c>
       <c r="E20" t="n">
         <v>429.4369973932878</v>
@@ -23983,7 +23983,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>396.054118850051</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -24019,10 +24019,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>52.51403670113842</v>
+        <v>52.5140367011384</v>
       </c>
       <c r="T20" t="n">
-        <v>212.0456433386444</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -24034,10 +24034,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X20" t="n">
-        <v>121.4580334141432</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="21">
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>186.5795834087608</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24144,10 +24144,10 @@
         <v>163.3388892342509</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>133.1999654356588</v>
       </c>
       <c r="I22" t="n">
-        <v>69.83578017384922</v>
+        <v>69.8357801738492</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24180,22 +24180,22 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>240.8720855447433</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>275.6161358490523</v>
       </c>
       <c r="V22" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>262.9048213503577</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="23">
@@ -24220,10 +24220,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G23" t="n">
-        <v>396.054118850051</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>272.6207125031721</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24256,7 +24256,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>52.51403670113842</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>212.0456433386444</v>
@@ -24265,16 +24265,16 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>212.5808826695095</v>
+        <v>170.5757076950148</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="24">
@@ -24363,13 +24363,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D25" t="n">
-        <v>51.2736292579276</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24378,13 +24378,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>163.3388892342509</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>69.8357801738492</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,25 +24414,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>147.2540575406698</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>275.6161358490523</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>183.5014123017031</v>
       </c>
       <c r="W25" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X25" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24448,16 +24448,16 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D26" t="n">
-        <v>13.36505512097506</v>
+        <v>13.365055120975</v>
       </c>
       <c r="E26" t="n">
-        <v>429.4369973932878</v>
+        <v>11.25136553696285</v>
       </c>
       <c r="F26" t="n">
-        <v>230.4481873778664</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>396.054118850051</v>
       </c>
       <c r="H26" t="n">
         <v>272.6207125031721</v>
@@ -24493,25 +24493,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>52.51403670113842</v>
+        <v>52.51403670113841</v>
       </c>
       <c r="T26" t="n">
         <v>212.0456433386444</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>256.5237009191198</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W26" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X26" t="n">
-        <v>414.9510387864824</v>
+        <v>32.63076485444975</v>
       </c>
       <c r="Y26" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24603,25 +24603,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>32.8675156160524</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>163.3388892342509</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>133.1999654356588</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>69.8357801738492</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24654,22 +24654,22 @@
         <v>147.2540575406698</v>
       </c>
       <c r="T28" t="n">
-        <v>136.3940203422793</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>275.6161358490523</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y28" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24682,7 +24682,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C29" t="n">
-        <v>433.7610480884109</v>
+        <v>15.57541623208607</v>
       </c>
       <c r="D29" t="n">
         <v>431.5506869772999</v>
@@ -24694,10 +24694,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>396.054118850051</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>272.6207125031721</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24730,25 +24730,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>52.51403670113842</v>
       </c>
       <c r="T29" t="n">
-        <v>212.0456433386444</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>256.5237009191198</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>23.65785661465253</v>
       </c>
       <c r="X29" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y29" t="n">
-        <v>262.2950110182681</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="30">
@@ -24843,19 +24843,19 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D31" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>163.3388892342509</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>133.1999654356588</v>
       </c>
       <c r="I31" t="n">
         <v>69.83578017384922</v>
@@ -24888,16 +24888,16 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>137.9342623130527</v>
       </c>
       <c r="T31" t="n">
-        <v>240.8720855447433</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>275.6161358490523</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>144.5511957659525</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="32">
@@ -24928,13 +24928,13 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F32" t="n">
-        <v>423.5887552948843</v>
+        <v>80.26845708115655</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>272.6207125031721</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24967,7 +24967,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>52.51403670113841</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -24976,16 +24976,16 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W32" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X32" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>330.0574552329551</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="33">
@@ -25074,16 +25074,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>129.7956552821918</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -25125,7 +25125,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>147.2540575406698</v>
       </c>
       <c r="T34" t="n">
         <v>240.8720855447433</v>
@@ -25134,13 +25134,13 @@
         <v>275.6161358490523</v>
       </c>
       <c r="V34" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>226.7733503888864</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25156,10 +25156,10 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C35" t="n">
-        <v>433.7610480884109</v>
+        <v>15.57541623208613</v>
       </c>
       <c r="D35" t="n">
-        <v>431.5506869772999</v>
+        <v>13.36505512097511</v>
       </c>
       <c r="E35" t="n">
         <v>429.4369973932878</v>
@@ -25168,7 +25168,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G35" t="n">
-        <v>207.8281014764828</v>
+        <v>396.054118850051</v>
       </c>
       <c r="H35" t="n">
         <v>272.6207125031721</v>
@@ -25207,22 +25207,22 @@
         <v>52.51403670113841</v>
       </c>
       <c r="T35" t="n">
-        <v>212.0456433386444</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>41.03658842790043</v>
       </c>
       <c r="W35" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="36">
@@ -25311,19 +25311,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D37" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E37" t="n">
-        <v>168.0604237117701</v>
+        <v>136.0171501833</v>
       </c>
       <c r="F37" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>163.3388892342509</v>
@@ -25365,16 +25365,16 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>240.8720855447433</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>182.187324731901</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25396,16 +25396,16 @@
         <v>15.57541623208607</v>
       </c>
       <c r="D38" t="n">
-        <v>431.5506869772999</v>
+        <v>13.36505512097506</v>
       </c>
       <c r="E38" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F38" t="n">
-        <v>83.503050150999</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>281.0053221602776</v>
       </c>
       <c r="H38" t="n">
         <v>272.6207125031721</v>
@@ -25444,7 +25444,7 @@
         <v>52.51403670113841</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>212.0456433386444</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -25456,7 +25456,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X38" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>404.2032624633431</v>
@@ -25548,25 +25548,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C40" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D40" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>36.97140471230665</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
         <v>163.3388892342509</v>
       </c>
       <c r="H40" t="n">
-        <v>133.1999654356588</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>69.83578017384922</v>
@@ -25602,10 +25602,10 @@
         <v>147.2540575406698</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>104.932291971439</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>275.6161358490523</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25614,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25630,7 +25630,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
-        <v>15.57541623208613</v>
+        <v>15.57541623208607</v>
       </c>
       <c r="D41" t="n">
         <v>431.5506869772999</v>
@@ -25642,7 +25642,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>71.41911212276506</v>
+        <v>18.90507542162652</v>
       </c>
       <c r="H41" t="n">
         <v>272.6207125031721</v>
@@ -25678,7 +25678,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>52.51403670113841</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -25791,19 +25791,19 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>53.07711755588225</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>163.3388892342509</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>133.1999654356588</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>69.83578017384922</v>
@@ -25845,16 +25845,16 @@
         <v>275.6161358490523</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W43" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>154.8718186398589</v>
       </c>
     </row>
     <row r="44">
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>411.7108732951546</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
         <v>433.7610480884109</v>
@@ -25876,7 +25876,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
-        <v>423.5887552948843</v>
+        <v>69.52068075801731</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -25915,19 +25915,19 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>52.51403670113841</v>
       </c>
       <c r="T44" t="n">
-        <v>212.0456433386444</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>256.5237009191198</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
         <v>414.9510387864824</v>
@@ -26022,16 +26022,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C46" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -26040,7 +26040,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>92.6381738374732</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>69.83578017384922</v>
@@ -26076,22 +26076,22 @@
         <v>147.2540575406698</v>
       </c>
       <c r="T46" t="n">
-        <v>240.8720855447433</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X46" t="n">
-        <v>242.9378371199217</v>
+        <v>111.1258275573327</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
   </sheetData>
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>339039.6477210033</v>
+        <v>339039.6477210035</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>339039.6477210033</v>
+        <v>339039.6477210034</v>
       </c>
     </row>
     <row r="11">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>339039.6477210034</v>
+        <v>339039.6477210033</v>
       </c>
     </row>
     <row r="14">
@@ -26328,34 +26328,34 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
+        <v>97378.78047220716</v>
+      </c>
+      <c r="H2" t="n">
+        <v>97378.7804722072</v>
+      </c>
+      <c r="I2" t="n">
+        <v>97378.78047220717</v>
+      </c>
+      <c r="J2" t="n">
+        <v>97378.78047220716</v>
+      </c>
+      <c r="K2" t="n">
+        <v>97378.78047220713</v>
+      </c>
+      <c r="L2" t="n">
         <v>97378.78047220715</v>
       </c>
-      <c r="H2" t="n">
-        <v>97378.7804722071</v>
-      </c>
-      <c r="I2" t="n">
-        <v>97378.7804722071</v>
-      </c>
-      <c r="J2" t="n">
+      <c r="M2" t="n">
+        <v>97378.78047220716</v>
+      </c>
+      <c r="N2" t="n">
         <v>97378.78047220713</v>
       </c>
-      <c r="K2" t="n">
-        <v>97378.78047220712</v>
-      </c>
-      <c r="L2" t="n">
-        <v>97378.78047220712</v>
-      </c>
-      <c r="M2" t="n">
-        <v>97378.78047220715</v>
-      </c>
-      <c r="N2" t="n">
-        <v>97378.78047220715</v>
-      </c>
       <c r="O2" t="n">
-        <v>97378.7804722071</v>
+        <v>97378.78047220713</v>
       </c>
       <c r="P2" t="n">
-        <v>97378.78047220716</v>
+        <v>97378.78047220713</v>
       </c>
     </row>
     <row r="3">
@@ -26380,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>371788.8610770355</v>
+        <v>371788.8610770357</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26404,7 +26404,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>100636.7904918564</v>
+        <v>100636.7904918565</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26432,13 +26432,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
+        <v>10748.89393158316</v>
+      </c>
+      <c r="H4" t="n">
+        <v>10748.89393158316</v>
+      </c>
+      <c r="I4" t="n">
         <v>10748.89393158315</v>
-      </c>
-      <c r="H4" t="n">
-        <v>10748.89393158315</v>
-      </c>
-      <c r="I4" t="n">
-        <v>10748.89393158314</v>
       </c>
       <c r="J4" t="n">
         <v>10748.89393158315</v>
@@ -26453,10 +26453,10 @@
         <v>10748.89393158315</v>
       </c>
       <c r="N4" t="n">
+        <v>10748.89393158314</v>
+      </c>
+      <c r="O4" t="n">
         <v>10748.89393158315</v>
-      </c>
-      <c r="O4" t="n">
-        <v>10748.89393158314</v>
       </c>
       <c r="P4" t="n">
         <v>10748.89393158315</v>
@@ -26484,13 +26484,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>32636.50261996421</v>
+        <v>32636.50261996422</v>
       </c>
       <c r="H5" t="n">
-        <v>32636.50261996421</v>
+        <v>32636.50261996422</v>
       </c>
       <c r="I5" t="n">
-        <v>32636.5026199642</v>
+        <v>32636.50261996422</v>
       </c>
       <c r="J5" t="n">
         <v>32636.50261996421</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-33627.6</v>
+        <v>-34967.96829972602</v>
       </c>
       <c r="C6" t="n">
-        <v>-33627.6</v>
+        <v>-34967.96829972602</v>
       </c>
       <c r="D6" t="n">
-        <v>-33627.6</v>
+        <v>-34967.96829972602</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>-1340.368299726021</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>-1340.368299726021</v>
       </c>
       <c r="G6" t="n">
-        <v>-317795.4771563758</v>
+        <v>-318527.2280781507</v>
       </c>
       <c r="H6" t="n">
-        <v>53993.38392065975</v>
+        <v>53261.6329988851</v>
       </c>
       <c r="I6" t="n">
-        <v>53993.38392065976</v>
+        <v>53261.63299888507</v>
       </c>
       <c r="J6" t="n">
-        <v>53993.38392065977</v>
+        <v>53261.63299888506</v>
       </c>
       <c r="K6" t="n">
-        <v>53993.38392065975</v>
+        <v>53261.63299888504</v>
       </c>
       <c r="L6" t="n">
-        <v>53993.38392065975</v>
+        <v>53261.63299888506</v>
       </c>
       <c r="M6" t="n">
-        <v>53993.38392065979</v>
+        <v>53261.63299888508</v>
       </c>
       <c r="N6" t="n">
-        <v>53993.38392065979</v>
+        <v>53261.63299888506</v>
       </c>
       <c r="O6" t="n">
-        <v>-46643.40657119667</v>
+        <v>-47375.15749297143</v>
       </c>
       <c r="P6" t="n">
-        <v>53993.3839206598</v>
+        <v>53261.63299888504</v>
       </c>
     </row>
   </sheetData>
@@ -26752,19 +26752,19 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
+        <v>330.7713854632873</v>
+      </c>
+      <c r="H3" t="n">
+        <v>330.7713854632873</v>
+      </c>
+      <c r="I3" t="n">
+        <v>330.7713854632873</v>
+      </c>
+      <c r="J3" t="n">
+        <v>330.7713854632872</v>
+      </c>
+      <c r="K3" t="n">
         <v>330.7713854632871</v>
-      </c>
-      <c r="H3" t="n">
-        <v>330.7713854632871</v>
-      </c>
-      <c r="I3" t="n">
-        <v>330.7713854632871</v>
-      </c>
-      <c r="J3" t="n">
-        <v>330.7713854632871</v>
-      </c>
-      <c r="K3" t="n">
-        <v>330.7713854632872</v>
       </c>
       <c r="L3" t="n">
         <v>330.7713854632872</v>
@@ -26804,22 +26804,22 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>418.1856318563248</v>
+        <v>418.185631856325</v>
       </c>
       <c r="H4" t="n">
-        <v>418.1856318563248</v>
+        <v>418.185631856325</v>
       </c>
       <c r="I4" t="n">
-        <v>418.1856318563247</v>
+        <v>418.185631856325</v>
       </c>
       <c r="J4" t="n">
-        <v>418.1856318563248</v>
+        <v>418.1856318563249</v>
       </c>
       <c r="K4" t="n">
         <v>418.1856318563248</v>
       </c>
       <c r="L4" t="n">
-        <v>418.1856318563249</v>
+        <v>418.1856318563248</v>
       </c>
       <c r="M4" t="n">
         <v>418.1856318563248</v>
@@ -26974,7 +26974,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>330.7713854632871</v>
+        <v>330.7713854632873</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27026,7 +27026,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>418.1856318563248</v>
+        <v>418.185631856325</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27050,7 +27050,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>418.1856318563248</v>
+        <v>418.185631856325</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27272,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>418.1856318563248</v>
+        <v>418.185631856325</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -32226,46 +32226,46 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.329734212917736</v>
+        <v>1.329734212917737</v>
       </c>
       <c r="H17" t="n">
-        <v>13.61814050804377</v>
+        <v>13.61814050804378</v>
       </c>
       <c r="I17" t="n">
-        <v>51.26457824351107</v>
+        <v>51.2645782435111</v>
       </c>
       <c r="J17" t="n">
-        <v>112.8595291536268</v>
+        <v>112.8595291536269</v>
       </c>
       <c r="K17" t="n">
-        <v>169.1471783864346</v>
+        <v>169.1471783864347</v>
       </c>
       <c r="L17" t="n">
-        <v>209.8420318050158</v>
+        <v>209.8420318050159</v>
       </c>
       <c r="M17" t="n">
-        <v>233.4896926139916</v>
+        <v>233.4896926139917</v>
       </c>
       <c r="N17" t="n">
-        <v>237.2677999464441</v>
+        <v>237.2677999464443</v>
       </c>
       <c r="O17" t="n">
-        <v>224.0452553667434</v>
+        <v>224.0452553667435</v>
       </c>
       <c r="P17" t="n">
         <v>191.2174419853368</v>
       </c>
       <c r="Q17" t="n">
-        <v>143.5963354852203</v>
+        <v>143.5963354852204</v>
       </c>
       <c r="R17" t="n">
-        <v>83.52891675219382</v>
+        <v>83.52891675219387</v>
       </c>
       <c r="S17" t="n">
-        <v>30.30131837686294</v>
+        <v>30.30131837686296</v>
       </c>
       <c r="T17" t="n">
-        <v>5.820911517047393</v>
+        <v>5.820911517047396</v>
       </c>
       <c r="U17" t="n">
         <v>0.1063787370334189</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.7114705272229195</v>
+        <v>0.7114705272229198</v>
       </c>
       <c r="H18" t="n">
-        <v>6.871307460284513</v>
+        <v>6.871307460284516</v>
       </c>
       <c r="I18" t="n">
-        <v>24.49580543289438</v>
+        <v>24.49580543289439</v>
       </c>
       <c r="J18" t="n">
-        <v>67.21836239872329</v>
+        <v>67.21836239872333</v>
       </c>
       <c r="K18" t="n">
-        <v>114.8868877226589</v>
+        <v>114.886887722659</v>
       </c>
       <c r="L18" t="n">
-        <v>154.4795984656607</v>
+        <v>154.4795984656608</v>
       </c>
       <c r="M18" t="n">
         <v>180.2704050774915</v>
       </c>
       <c r="N18" t="n">
-        <v>185.041626288561</v>
+        <v>185.0416262885611</v>
       </c>
       <c r="O18" t="n">
         <v>169.27693723799</v>
       </c>
       <c r="P18" t="n">
-        <v>135.8596658518924</v>
+        <v>135.8596658518925</v>
       </c>
       <c r="Q18" t="n">
-        <v>90.81858870305197</v>
+        <v>90.81858870305203</v>
       </c>
       <c r="R18" t="n">
-        <v>44.17358238319146</v>
+        <v>44.17358238319148</v>
       </c>
       <c r="S18" t="n">
         <v>13.21525299468887</v>
       </c>
       <c r="T18" t="n">
-        <v>2.867725502271328</v>
+        <v>2.867725502271329</v>
       </c>
       <c r="U18" t="n">
-        <v>0.04680727152782367</v>
+        <v>0.04680727152782369</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.596472990179698</v>
+        <v>0.5964729901796983</v>
       </c>
       <c r="H19" t="n">
-        <v>5.30318713087041</v>
+        <v>5.303187130870413</v>
       </c>
       <c r="I19" t="n">
         <v>17.9375695592222</v>
       </c>
       <c r="J19" t="n">
-        <v>42.17064040570465</v>
+        <v>42.17064040570467</v>
       </c>
       <c r="K19" t="n">
-        <v>69.29931649542308</v>
+        <v>69.29931649542311</v>
       </c>
       <c r="L19" t="n">
-        <v>88.67926619453439</v>
+        <v>88.67926619453443</v>
       </c>
       <c r="M19" t="n">
-        <v>93.49985245153211</v>
+        <v>93.49985245153215</v>
       </c>
       <c r="N19" t="n">
-        <v>91.27663494268057</v>
+        <v>91.27663494268063</v>
       </c>
       <c r="O19" t="n">
-        <v>84.30874592103589</v>
+        <v>84.30874592103594</v>
       </c>
       <c r="P19" t="n">
-        <v>72.14069692136999</v>
+        <v>72.14069692137004</v>
       </c>
       <c r="Q19" t="n">
-        <v>49.94647920495635</v>
+        <v>49.94647920495638</v>
       </c>
       <c r="R19" t="n">
-        <v>26.81959463117078</v>
+        <v>26.81959463117079</v>
       </c>
       <c r="S19" t="n">
-        <v>10.39489747431346</v>
+        <v>10.39489747431347</v>
       </c>
       <c r="T19" t="n">
-        <v>2.548566412585982</v>
+        <v>2.548566412585983</v>
       </c>
       <c r="U19" t="n">
-        <v>0.03253489037343811</v>
+        <v>0.03253489037343812</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,46 +32463,46 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.329734212917736</v>
+        <v>1.329734212917737</v>
       </c>
       <c r="H20" t="n">
-        <v>13.61814050804377</v>
+        <v>13.61814050804378</v>
       </c>
       <c r="I20" t="n">
-        <v>51.26457824351107</v>
+        <v>51.2645782435111</v>
       </c>
       <c r="J20" t="n">
-        <v>112.8595291536268</v>
+        <v>112.8595291536269</v>
       </c>
       <c r="K20" t="n">
-        <v>169.1471783864346</v>
+        <v>169.1471783864347</v>
       </c>
       <c r="L20" t="n">
-        <v>209.8420318050158</v>
+        <v>209.8420318050159</v>
       </c>
       <c r="M20" t="n">
-        <v>233.4896926139916</v>
+        <v>233.4896926139917</v>
       </c>
       <c r="N20" t="n">
-        <v>237.2677999464441</v>
+        <v>237.2677999464443</v>
       </c>
       <c r="O20" t="n">
-        <v>224.0452553667434</v>
+        <v>224.0452553667435</v>
       </c>
       <c r="P20" t="n">
         <v>191.2174419853368</v>
       </c>
       <c r="Q20" t="n">
-        <v>143.5963354852203</v>
+        <v>143.5963354852204</v>
       </c>
       <c r="R20" t="n">
-        <v>83.52891675219382</v>
+        <v>83.52891675219387</v>
       </c>
       <c r="S20" t="n">
-        <v>30.30131837686294</v>
+        <v>30.30131837686296</v>
       </c>
       <c r="T20" t="n">
-        <v>5.820911517047393</v>
+        <v>5.820911517047396</v>
       </c>
       <c r="U20" t="n">
         <v>0.1063787370334189</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.7114705272229195</v>
+        <v>0.7114705272229198</v>
       </c>
       <c r="H21" t="n">
-        <v>6.871307460284513</v>
+        <v>6.871307460284516</v>
       </c>
       <c r="I21" t="n">
-        <v>24.49580543289438</v>
+        <v>24.49580543289439</v>
       </c>
       <c r="J21" t="n">
-        <v>67.21836239872329</v>
+        <v>67.21836239872333</v>
       </c>
       <c r="K21" t="n">
-        <v>114.8868877226589</v>
+        <v>114.886887722659</v>
       </c>
       <c r="L21" t="n">
-        <v>154.4795984656607</v>
+        <v>154.4795984656608</v>
       </c>
       <c r="M21" t="n">
         <v>180.2704050774915</v>
       </c>
       <c r="N21" t="n">
-        <v>185.041626288561</v>
+        <v>185.0416262885611</v>
       </c>
       <c r="O21" t="n">
         <v>169.27693723799</v>
       </c>
       <c r="P21" t="n">
-        <v>135.8596658518924</v>
+        <v>135.8596658518925</v>
       </c>
       <c r="Q21" t="n">
-        <v>90.81858870305197</v>
+        <v>90.81858870305203</v>
       </c>
       <c r="R21" t="n">
-        <v>44.17358238319146</v>
+        <v>44.17358238319148</v>
       </c>
       <c r="S21" t="n">
         <v>13.21525299468887</v>
       </c>
       <c r="T21" t="n">
-        <v>2.867725502271328</v>
+        <v>2.867725502271329</v>
       </c>
       <c r="U21" t="n">
-        <v>0.04680727152782367</v>
+        <v>0.04680727152782369</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.596472990179698</v>
+        <v>0.5964729901796983</v>
       </c>
       <c r="H22" t="n">
-        <v>5.30318713087041</v>
+        <v>5.303187130870413</v>
       </c>
       <c r="I22" t="n">
         <v>17.9375695592222</v>
       </c>
       <c r="J22" t="n">
-        <v>42.17064040570465</v>
+        <v>42.17064040570467</v>
       </c>
       <c r="K22" t="n">
-        <v>69.29931649542308</v>
+        <v>69.29931649542311</v>
       </c>
       <c r="L22" t="n">
-        <v>88.67926619453439</v>
+        <v>88.67926619453443</v>
       </c>
       <c r="M22" t="n">
-        <v>93.49985245153211</v>
+        <v>93.49985245153215</v>
       </c>
       <c r="N22" t="n">
-        <v>91.27663494268057</v>
+        <v>91.27663494268063</v>
       </c>
       <c r="O22" t="n">
-        <v>84.30874592103589</v>
+        <v>84.30874592103594</v>
       </c>
       <c r="P22" t="n">
-        <v>72.14069692136999</v>
+        <v>72.14069692137004</v>
       </c>
       <c r="Q22" t="n">
-        <v>49.94647920495635</v>
+        <v>49.94647920495638</v>
       </c>
       <c r="R22" t="n">
-        <v>26.81959463117078</v>
+        <v>26.81959463117079</v>
       </c>
       <c r="S22" t="n">
-        <v>10.39489747431346</v>
+        <v>10.39489747431347</v>
       </c>
       <c r="T22" t="n">
-        <v>2.548566412585982</v>
+        <v>2.548566412585983</v>
       </c>
       <c r="U22" t="n">
-        <v>0.03253489037343811</v>
+        <v>0.03253489037343812</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,46 +32700,46 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.329734212917736</v>
+        <v>1.329734212917737</v>
       </c>
       <c r="H23" t="n">
-        <v>13.61814050804377</v>
+        <v>13.61814050804378</v>
       </c>
       <c r="I23" t="n">
-        <v>51.26457824351107</v>
+        <v>51.2645782435111</v>
       </c>
       <c r="J23" t="n">
-        <v>112.8595291536268</v>
+        <v>112.8595291536269</v>
       </c>
       <c r="K23" t="n">
-        <v>169.1471783864346</v>
+        <v>169.1471783864347</v>
       </c>
       <c r="L23" t="n">
-        <v>209.8420318050158</v>
+        <v>209.8420318050159</v>
       </c>
       <c r="M23" t="n">
-        <v>233.4896926139916</v>
+        <v>233.4896926139917</v>
       </c>
       <c r="N23" t="n">
-        <v>237.2677999464441</v>
+        <v>237.2677999464443</v>
       </c>
       <c r="O23" t="n">
-        <v>224.0452553667434</v>
+        <v>224.0452553667435</v>
       </c>
       <c r="P23" t="n">
         <v>191.2174419853368</v>
       </c>
       <c r="Q23" t="n">
-        <v>143.5963354852203</v>
+        <v>143.5963354852204</v>
       </c>
       <c r="R23" t="n">
-        <v>83.52891675219382</v>
+        <v>83.52891675219387</v>
       </c>
       <c r="S23" t="n">
-        <v>30.30131837686294</v>
+        <v>30.30131837686296</v>
       </c>
       <c r="T23" t="n">
-        <v>5.820911517047393</v>
+        <v>5.820911517047396</v>
       </c>
       <c r="U23" t="n">
         <v>0.1063787370334189</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.7114705272229195</v>
+        <v>0.7114705272229198</v>
       </c>
       <c r="H24" t="n">
-        <v>6.871307460284513</v>
+        <v>6.871307460284516</v>
       </c>
       <c r="I24" t="n">
-        <v>24.49580543289438</v>
+        <v>24.49580543289439</v>
       </c>
       <c r="J24" t="n">
-        <v>67.21836239872329</v>
+        <v>67.21836239872333</v>
       </c>
       <c r="K24" t="n">
-        <v>114.8868877226589</v>
+        <v>114.886887722659</v>
       </c>
       <c r="L24" t="n">
-        <v>154.4795984656607</v>
+        <v>154.4795984656608</v>
       </c>
       <c r="M24" t="n">
         <v>180.2704050774915</v>
       </c>
       <c r="N24" t="n">
-        <v>185.041626288561</v>
+        <v>185.0416262885611</v>
       </c>
       <c r="O24" t="n">
         <v>169.27693723799</v>
       </c>
       <c r="P24" t="n">
-        <v>135.8596658518924</v>
+        <v>135.8596658518925</v>
       </c>
       <c r="Q24" t="n">
-        <v>90.81858870305197</v>
+        <v>90.81858870305203</v>
       </c>
       <c r="R24" t="n">
-        <v>44.17358238319146</v>
+        <v>44.17358238319148</v>
       </c>
       <c r="S24" t="n">
         <v>13.21525299468887</v>
       </c>
       <c r="T24" t="n">
-        <v>2.867725502271328</v>
+        <v>2.867725502271329</v>
       </c>
       <c r="U24" t="n">
-        <v>0.04680727152782367</v>
+        <v>0.04680727152782369</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.596472990179698</v>
+        <v>0.5964729901796983</v>
       </c>
       <c r="H25" t="n">
-        <v>5.30318713087041</v>
+        <v>5.303187130870413</v>
       </c>
       <c r="I25" t="n">
         <v>17.9375695592222</v>
       </c>
       <c r="J25" t="n">
-        <v>42.17064040570465</v>
+        <v>42.17064040570467</v>
       </c>
       <c r="K25" t="n">
-        <v>69.29931649542308</v>
+        <v>69.29931649542311</v>
       </c>
       <c r="L25" t="n">
-        <v>88.67926619453439</v>
+        <v>88.67926619453443</v>
       </c>
       <c r="M25" t="n">
-        <v>93.49985245153211</v>
+        <v>93.49985245153215</v>
       </c>
       <c r="N25" t="n">
-        <v>91.27663494268057</v>
+        <v>91.27663494268063</v>
       </c>
       <c r="O25" t="n">
-        <v>84.30874592103589</v>
+        <v>84.30874592103594</v>
       </c>
       <c r="P25" t="n">
-        <v>72.14069692136999</v>
+        <v>72.14069692137004</v>
       </c>
       <c r="Q25" t="n">
-        <v>49.94647920495635</v>
+        <v>49.94647920495638</v>
       </c>
       <c r="R25" t="n">
-        <v>26.81959463117078</v>
+        <v>26.81959463117079</v>
       </c>
       <c r="S25" t="n">
-        <v>10.39489747431346</v>
+        <v>10.39489747431347</v>
       </c>
       <c r="T25" t="n">
-        <v>2.548566412585982</v>
+        <v>2.548566412585983</v>
       </c>
       <c r="U25" t="n">
-        <v>0.03253489037343811</v>
+        <v>0.03253489037343812</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,31 +32937,31 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.329734212917736</v>
+        <v>1.329734212917737</v>
       </c>
       <c r="H26" t="n">
         <v>13.61814050804377</v>
       </c>
       <c r="I26" t="n">
-        <v>51.26457824351107</v>
+        <v>51.26457824351109</v>
       </c>
       <c r="J26" t="n">
-        <v>112.8595291536268</v>
+        <v>112.8595291536269</v>
       </c>
       <c r="K26" t="n">
-        <v>169.1471783864346</v>
+        <v>169.1471783864347</v>
       </c>
       <c r="L26" t="n">
-        <v>209.8420318050158</v>
+        <v>209.8420318050159</v>
       </c>
       <c r="M26" t="n">
-        <v>233.4896926139916</v>
+        <v>233.4896926139917</v>
       </c>
       <c r="N26" t="n">
-        <v>237.2677999464441</v>
+        <v>237.2677999464442</v>
       </c>
       <c r="O26" t="n">
-        <v>224.0452553667434</v>
+        <v>224.0452553667435</v>
       </c>
       <c r="P26" t="n">
         <v>191.2174419853368</v>
@@ -32970,13 +32970,13 @@
         <v>143.5963354852203</v>
       </c>
       <c r="R26" t="n">
-        <v>83.52891675219382</v>
+        <v>83.52891675219385</v>
       </c>
       <c r="S26" t="n">
-        <v>30.30131837686294</v>
+        <v>30.30131837686295</v>
       </c>
       <c r="T26" t="n">
-        <v>5.820911517047393</v>
+        <v>5.820911517047395</v>
       </c>
       <c r="U26" t="n">
         <v>0.1063787370334189</v>
@@ -33016,16 +33016,16 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.7114705272229195</v>
+        <v>0.7114705272229197</v>
       </c>
       <c r="H27" t="n">
-        <v>6.871307460284513</v>
+        <v>6.871307460284515</v>
       </c>
       <c r="I27" t="n">
-        <v>24.49580543289438</v>
+        <v>24.49580543289439</v>
       </c>
       <c r="J27" t="n">
-        <v>67.21836239872329</v>
+        <v>67.21836239872331</v>
       </c>
       <c r="K27" t="n">
         <v>114.8868877226589</v>
@@ -33043,22 +33043,22 @@
         <v>169.27693723799</v>
       </c>
       <c r="P27" t="n">
-        <v>135.8596658518924</v>
+        <v>135.8596658518925</v>
       </c>
       <c r="Q27" t="n">
-        <v>90.81858870305197</v>
+        <v>90.818588703052</v>
       </c>
       <c r="R27" t="n">
-        <v>44.17358238319146</v>
+        <v>44.17358238319147</v>
       </c>
       <c r="S27" t="n">
         <v>13.21525299468887</v>
       </c>
       <c r="T27" t="n">
-        <v>2.867725502271328</v>
+        <v>2.867725502271329</v>
       </c>
       <c r="U27" t="n">
-        <v>0.04680727152782367</v>
+        <v>0.04680727152782369</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.596472990179698</v>
+        <v>0.5964729901796982</v>
       </c>
       <c r="H28" t="n">
-        <v>5.30318713087041</v>
+        <v>5.303187130870412</v>
       </c>
       <c r="I28" t="n">
         <v>17.9375695592222</v>
       </c>
       <c r="J28" t="n">
-        <v>42.17064040570465</v>
+        <v>42.17064040570466</v>
       </c>
       <c r="K28" t="n">
-        <v>69.29931649542308</v>
+        <v>69.2993164954231</v>
       </c>
       <c r="L28" t="n">
-        <v>88.67926619453439</v>
+        <v>88.67926619453442</v>
       </c>
       <c r="M28" t="n">
-        <v>93.49985245153211</v>
+        <v>93.49985245153213</v>
       </c>
       <c r="N28" t="n">
-        <v>91.27663494268057</v>
+        <v>91.27663494268062</v>
       </c>
       <c r="O28" t="n">
-        <v>84.30874592103589</v>
+        <v>84.30874592103592</v>
       </c>
       <c r="P28" t="n">
-        <v>72.14069692136999</v>
+        <v>72.14069692137002</v>
       </c>
       <c r="Q28" t="n">
-        <v>49.94647920495635</v>
+        <v>49.94647920495637</v>
       </c>
       <c r="R28" t="n">
-        <v>26.81959463117078</v>
+        <v>26.81959463117079</v>
       </c>
       <c r="S28" t="n">
-        <v>10.39489747431346</v>
+        <v>10.39489747431347</v>
       </c>
       <c r="T28" t="n">
-        <v>2.548566412585982</v>
+        <v>2.548566412585983</v>
       </c>
       <c r="U28" t="n">
-        <v>0.03253489037343811</v>
+        <v>0.03253489037343812</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33180,7 +33180,7 @@
         <v>13.61814050804377</v>
       </c>
       <c r="I29" t="n">
-        <v>51.26457824351108</v>
+        <v>51.26457824351107</v>
       </c>
       <c r="J29" t="n">
         <v>112.8595291536268</v>
@@ -33189,13 +33189,13 @@
         <v>169.1471783864346</v>
       </c>
       <c r="L29" t="n">
-        <v>209.8420318050159</v>
+        <v>209.8420318050158</v>
       </c>
       <c r="M29" t="n">
-        <v>233.4896926139917</v>
+        <v>233.4896926139916</v>
       </c>
       <c r="N29" t="n">
-        <v>237.2677999464442</v>
+        <v>237.2677999464441</v>
       </c>
       <c r="O29" t="n">
         <v>224.0452553667434</v>
@@ -33207,13 +33207,13 @@
         <v>143.5963354852203</v>
       </c>
       <c r="R29" t="n">
-        <v>83.52891675219384</v>
+        <v>83.52891675219382</v>
       </c>
       <c r="S29" t="n">
-        <v>30.30131837686295</v>
+        <v>30.30131837686294</v>
       </c>
       <c r="T29" t="n">
-        <v>5.820911517047394</v>
+        <v>5.820911517047393</v>
       </c>
       <c r="U29" t="n">
         <v>0.1063787370334189</v>
@@ -33253,16 +33253,16 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.7114705272229196</v>
+        <v>0.7114705272229195</v>
       </c>
       <c r="H30" t="n">
-        <v>6.871307460284514</v>
+        <v>6.871307460284513</v>
       </c>
       <c r="I30" t="n">
         <v>24.49580543289438</v>
       </c>
       <c r="J30" t="n">
-        <v>67.2183623987233</v>
+        <v>67.21836239872329</v>
       </c>
       <c r="K30" t="n">
         <v>114.8868877226589</v>
@@ -33283,10 +33283,10 @@
         <v>135.8596658518924</v>
       </c>
       <c r="Q30" t="n">
-        <v>90.81858870305199</v>
+        <v>90.81858870305197</v>
       </c>
       <c r="R30" t="n">
-        <v>44.17358238319147</v>
+        <v>44.17358238319146</v>
       </c>
       <c r="S30" t="n">
         <v>13.21525299468887</v>
@@ -33295,7 +33295,7 @@
         <v>2.867725502271328</v>
       </c>
       <c r="U30" t="n">
-        <v>0.04680727152782368</v>
+        <v>0.04680727152782367</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,10 +33332,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.5964729901796981</v>
+        <v>0.596472990179698</v>
       </c>
       <c r="H31" t="n">
-        <v>5.303187130870411</v>
+        <v>5.30318713087041</v>
       </c>
       <c r="I31" t="n">
         <v>17.9375695592222</v>
@@ -33344,25 +33344,25 @@
         <v>42.17064040570465</v>
       </c>
       <c r="K31" t="n">
-        <v>69.2993164954231</v>
+        <v>69.29931649542308</v>
       </c>
       <c r="L31" t="n">
-        <v>88.67926619453441</v>
+        <v>88.67926619453439</v>
       </c>
       <c r="M31" t="n">
-        <v>93.49985245153212</v>
+        <v>93.49985245153211</v>
       </c>
       <c r="N31" t="n">
-        <v>91.27663494268059</v>
+        <v>91.27663494268057</v>
       </c>
       <c r="O31" t="n">
-        <v>84.30874592103591</v>
+        <v>84.30874592103589</v>
       </c>
       <c r="P31" t="n">
-        <v>72.14069692137001</v>
+        <v>72.14069692136999</v>
       </c>
       <c r="Q31" t="n">
-        <v>49.94647920495636</v>
+        <v>49.94647920495635</v>
       </c>
       <c r="R31" t="n">
         <v>26.81959463117078</v>
@@ -33374,7 +33374,7 @@
         <v>2.548566412585982</v>
       </c>
       <c r="U31" t="n">
-        <v>0.03253489037343812</v>
+        <v>0.03253489037343811</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>50.85195676437968</v>
+        <v>50.8519567643797</v>
       </c>
       <c r="J17" t="n">
         <v>112.8595291536268</v>
       </c>
       <c r="K17" t="n">
-        <v>169.1471783864346</v>
+        <v>169.1471783864347</v>
       </c>
       <c r="L17" t="n">
-        <v>209.8420318050158</v>
+        <v>209.842031805016</v>
       </c>
       <c r="M17" t="n">
-        <v>233.4896926139917</v>
+        <v>233.4896926139918</v>
       </c>
       <c r="N17" t="n">
-        <v>237.2677999464441</v>
+        <v>237.2677999464443</v>
       </c>
       <c r="O17" t="n">
-        <v>224.0452553667433</v>
+        <v>224.0452553667435</v>
       </c>
       <c r="P17" t="n">
         <v>191.2174419853368</v>
       </c>
       <c r="Q17" t="n">
-        <v>143.5963354852202</v>
+        <v>143.5963354852204</v>
       </c>
       <c r="R17" t="n">
-        <v>83.52891675219394</v>
+        <v>83.52891675219416</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,31 +35959,31 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>50.82274801921519</v>
+        <v>50.8227480192152</v>
       </c>
       <c r="J18" t="n">
-        <v>67.21836239872329</v>
+        <v>395.0550542837864</v>
       </c>
       <c r="K18" t="n">
-        <v>114.8868877226589</v>
+        <v>131.6915904391133</v>
       </c>
       <c r="L18" t="n">
         <v>154.4795984656607</v>
       </c>
       <c r="M18" t="n">
-        <v>180.2704050774914</v>
+        <v>180.2704050774915</v>
       </c>
       <c r="N18" t="n">
         <v>185.041626288561</v>
       </c>
       <c r="O18" t="n">
-        <v>169.27693723799</v>
+        <v>169.2769372379901</v>
       </c>
       <c r="P18" t="n">
-        <v>153.1340173001367</v>
+        <v>135.8596658518925</v>
       </c>
       <c r="Q18" t="n">
-        <v>418.1856318563248</v>
+        <v>90.818588703052</v>
       </c>
       <c r="R18" t="n">
         <v>162.5299238926254</v>
@@ -36044,28 +36044,28 @@
         <v>129.6248678447853</v>
       </c>
       <c r="K19" t="n">
-        <v>69.29931649542308</v>
+        <v>346.8331089915197</v>
       </c>
       <c r="L19" t="n">
-        <v>88.67926619453439</v>
+        <v>266.6631737149104</v>
       </c>
       <c r="M19" t="n">
-        <v>418.1856318563248</v>
+        <v>93.49985245153198</v>
       </c>
       <c r="N19" t="n">
-        <v>418.1856318563248</v>
+        <v>91.27663494268063</v>
       </c>
       <c r="O19" t="n">
-        <v>84.30874592103601</v>
+        <v>84.30874592103589</v>
       </c>
       <c r="P19" t="n">
-        <v>222.1085555543598</v>
+        <v>418.185631856325</v>
       </c>
       <c r="Q19" t="n">
         <v>219.8381709871103</v>
       </c>
       <c r="R19" t="n">
-        <v>5.615951549488944</v>
+        <v>5.615951549488958</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>50.85195676437968</v>
+        <v>50.8519567643797</v>
       </c>
       <c r="J20" t="n">
-        <v>112.8595291536268</v>
+        <v>112.8595291536269</v>
       </c>
       <c r="K20" t="n">
-        <v>169.1471783864346</v>
+        <v>169.1471783864347</v>
       </c>
       <c r="L20" t="n">
-        <v>209.8420318050158</v>
+        <v>209.8420318050159</v>
       </c>
       <c r="M20" t="n">
-        <v>233.4896926139916</v>
+        <v>233.4896926139918</v>
       </c>
       <c r="N20" t="n">
         <v>237.2677999464443</v>
       </c>
       <c r="O20" t="n">
-        <v>224.0452553667433</v>
+        <v>224.0452553667435</v>
       </c>
       <c r="P20" t="n">
         <v>191.2174419853368</v>
       </c>
       <c r="Q20" t="n">
-        <v>143.5963354852202</v>
+        <v>143.5963354852204</v>
       </c>
       <c r="R20" t="n">
-        <v>83.52891675219394</v>
+        <v>83.52891675219416</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,19 +36196,19 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>50.82274801921519</v>
+        <v>50.8227480192152</v>
       </c>
       <c r="J21" t="n">
-        <v>395.0550542837863</v>
+        <v>395.0550542837864</v>
       </c>
       <c r="K21" t="n">
-        <v>250.0479319485469</v>
+        <v>131.6915904391133</v>
       </c>
       <c r="L21" t="n">
         <v>154.4795984656607</v>
       </c>
       <c r="M21" t="n">
-        <v>180.2704050774914</v>
+        <v>180.2704050774915</v>
       </c>
       <c r="N21" t="n">
         <v>185.041626288561</v>
@@ -36223,7 +36223,7 @@
         <v>90.818588703052</v>
       </c>
       <c r="R21" t="n">
-        <v>44.17358238319139</v>
+        <v>162.5299238926254</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36281,28 +36281,28 @@
         <v>129.6248678447853</v>
       </c>
       <c r="K22" t="n">
-        <v>346.8331089915197</v>
+        <v>207.4786998497705</v>
       </c>
       <c r="L22" t="n">
-        <v>88.67926619453442</v>
+        <v>418.185631856325</v>
       </c>
       <c r="M22" t="n">
-        <v>418.1856318563248</v>
+        <v>93.49985245153221</v>
       </c>
       <c r="N22" t="n">
         <v>91.27663494268063</v>
       </c>
       <c r="O22" t="n">
-        <v>84.30874592103601</v>
+        <v>418.185631856325</v>
       </c>
       <c r="P22" t="n">
-        <v>271.4837599719076</v>
+        <v>72.14069692137014</v>
       </c>
       <c r="Q22" t="n">
-        <v>219.8381709871101</v>
+        <v>219.8381709871103</v>
       </c>
       <c r="R22" t="n">
-        <v>5.615951549488944</v>
+        <v>5.615951549488958</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -36354,19 +36354,19 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>50.85195676437968</v>
+        <v>50.8519567643797</v>
       </c>
       <c r="J23" t="n">
-        <v>112.859529153627</v>
+        <v>112.8595291536269</v>
       </c>
       <c r="K23" t="n">
         <v>169.1471783864347</v>
       </c>
       <c r="L23" t="n">
-        <v>209.8420318050157</v>
+        <v>209.8420318050159</v>
       </c>
       <c r="M23" t="n">
-        <v>233.4896926139916</v>
+        <v>233.4896926139918</v>
       </c>
       <c r="N23" t="n">
         <v>237.2677999464443</v>
@@ -36375,13 +36375,13 @@
         <v>224.0452553667435</v>
       </c>
       <c r="P23" t="n">
-        <v>191.2174419853366</v>
+        <v>191.2174419853368</v>
       </c>
       <c r="Q23" t="n">
-        <v>143.5963354852202</v>
+        <v>143.5963354852204</v>
       </c>
       <c r="R23" t="n">
-        <v>83.52891675219371</v>
+        <v>83.52891675219416</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,10 +36433,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>50.82274801921518</v>
+        <v>50.8227480192152</v>
       </c>
       <c r="J24" t="n">
-        <v>67.21836239872329</v>
+        <v>395.0550542837864</v>
       </c>
       <c r="K24" t="n">
         <v>114.8868877226589</v>
@@ -36451,13 +36451,13 @@
         <v>185.041626288561</v>
       </c>
       <c r="O24" t="n">
-        <v>169.27693723799</v>
+        <v>169.2769372379901</v>
       </c>
       <c r="P24" t="n">
-        <v>153.1340173001363</v>
+        <v>135.8596658518925</v>
       </c>
       <c r="Q24" t="n">
-        <v>418.1856318563246</v>
+        <v>107.6232914195064</v>
       </c>
       <c r="R24" t="n">
         <v>162.5299238926254</v>
@@ -36521,25 +36521,25 @@
         <v>346.8331089915197</v>
       </c>
       <c r="L25" t="n">
-        <v>266.6631737149095</v>
+        <v>288.0223292450721</v>
       </c>
       <c r="M25" t="n">
-        <v>93.49985245153209</v>
+        <v>418.185631856325</v>
       </c>
       <c r="N25" t="n">
-        <v>91.27663494268052</v>
+        <v>91.27663494268063</v>
       </c>
       <c r="O25" t="n">
-        <v>84.30874592103589</v>
+        <v>84.30874592103601</v>
       </c>
       <c r="P25" t="n">
-        <v>418.1856318563248</v>
+        <v>72.14069692137014</v>
       </c>
       <c r="Q25" t="n">
-        <v>219.8381709871101</v>
+        <v>219.8381709871103</v>
       </c>
       <c r="R25" t="n">
-        <v>5.615951549488944</v>
+        <v>5.615951549488958</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36591,7 +36591,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>50.85195676437968</v>
+        <v>50.85195676437969</v>
       </c>
       <c r="J26" t="n">
         <v>112.8595291536268</v>
@@ -36600,13 +36600,13 @@
         <v>169.1471783864347</v>
       </c>
       <c r="L26" t="n">
-        <v>209.8420318050159</v>
+        <v>209.8420318050158</v>
       </c>
       <c r="M26" t="n">
-        <v>233.4896926139916</v>
+        <v>233.4896926139918</v>
       </c>
       <c r="N26" t="n">
-        <v>237.267799946444</v>
+        <v>237.2677999464443</v>
       </c>
       <c r="O26" t="n">
         <v>224.0452553667435</v>
@@ -36615,10 +36615,10 @@
         <v>191.2174419853368</v>
       </c>
       <c r="Q26" t="n">
-        <v>143.5963354852202</v>
+        <v>143.5963354852204</v>
       </c>
       <c r="R26" t="n">
-        <v>83.52891675219371</v>
+        <v>83.52891675219394</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,22 +36670,22 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>50.82274801921519</v>
+        <v>50.8227480192152</v>
       </c>
       <c r="J27" t="n">
-        <v>108.5610128665742</v>
+        <v>395.0550542837863</v>
       </c>
       <c r="K27" t="n">
-        <v>418.1856318563248</v>
+        <v>114.8868877226589</v>
       </c>
       <c r="L27" t="n">
         <v>154.4795984656607</v>
       </c>
       <c r="M27" t="n">
-        <v>180.2704050774914</v>
+        <v>180.2704050774915</v>
       </c>
       <c r="N27" t="n">
-        <v>185.041626288561</v>
+        <v>185.0416262885611</v>
       </c>
       <c r="O27" t="n">
         <v>169.2769372379901</v>
@@ -36694,10 +36694,10 @@
         <v>135.8596658518925</v>
       </c>
       <c r="Q27" t="n">
-        <v>90.818588703052</v>
+        <v>225.97963292894</v>
       </c>
       <c r="R27" t="n">
-        <v>162.5299238926254</v>
+        <v>44.17358238319139</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,31 +36752,31 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>42.17064040570465</v>
+        <v>42.17064040570466</v>
       </c>
       <c r="K28" t="n">
-        <v>69.29931649542308</v>
+        <v>69.2993164954231</v>
       </c>
       <c r="L28" t="n">
-        <v>88.67926619453439</v>
+        <v>418.1856318563249</v>
       </c>
       <c r="M28" t="n">
-        <v>93.49985245153212</v>
+        <v>93.49985245153209</v>
       </c>
       <c r="N28" t="n">
-        <v>418.1856318563248</v>
+        <v>418.1856318563249</v>
       </c>
       <c r="O28" t="n">
         <v>418.1856318563248</v>
       </c>
       <c r="P28" t="n">
-        <v>418.1856318563248</v>
+        <v>140.7570025833079</v>
       </c>
       <c r="Q28" t="n">
-        <v>102.0242155937299</v>
+        <v>49.9464792049564</v>
       </c>
       <c r="R28" t="n">
-        <v>5.615951549488944</v>
+        <v>5.615951549488951</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -36828,31 +36828,31 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>50.85195676437969</v>
+        <v>50.85195676437968</v>
       </c>
       <c r="J29" t="n">
         <v>112.8595291536268</v>
       </c>
       <c r="K29" t="n">
-        <v>169.1471783864347</v>
+        <v>169.1471783864346</v>
       </c>
       <c r="L29" t="n">
         <v>209.8420318050158</v>
       </c>
       <c r="M29" t="n">
-        <v>233.4896926139917</v>
+        <v>233.4896926139916</v>
       </c>
       <c r="N29" t="n">
         <v>237.2677999464441</v>
       </c>
       <c r="O29" t="n">
-        <v>224.0452553667435</v>
+        <v>224.0452553667433</v>
       </c>
       <c r="P29" t="n">
         <v>191.2174419853368</v>
       </c>
       <c r="Q29" t="n">
-        <v>143.5963354852204</v>
+        <v>143.5963354852202</v>
       </c>
       <c r="R29" t="n">
         <v>83.52891675219394</v>
@@ -36910,7 +36910,7 @@
         <v>50.82274801921519</v>
       </c>
       <c r="J30" t="n">
-        <v>395.0550542837863</v>
+        <v>67.21836239872329</v>
       </c>
       <c r="K30" t="n">
         <v>114.8868877226589</v>
@@ -36925,13 +36925,13 @@
         <v>185.041626288561</v>
       </c>
       <c r="O30" t="n">
-        <v>169.2769372379901</v>
+        <v>169.27693723799</v>
       </c>
       <c r="P30" t="n">
-        <v>135.8596658518925</v>
+        <v>153.1340173001365</v>
       </c>
       <c r="Q30" t="n">
-        <v>107.6232914195059</v>
+        <v>418.1856318563248</v>
       </c>
       <c r="R30" t="n">
         <v>162.5299238926254</v>
@@ -36989,31 +36989,31 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>42.17064040570465</v>
+        <v>129.6248678447853</v>
       </c>
       <c r="K31" t="n">
-        <v>69.29931649542308</v>
+        <v>346.8331089915197</v>
       </c>
       <c r="L31" t="n">
         <v>88.67926619453442</v>
       </c>
       <c r="M31" t="n">
-        <v>145.5775888403055</v>
+        <v>418.1856318563248</v>
       </c>
       <c r="N31" t="n">
-        <v>418.1856318563248</v>
+        <v>91.27663494268063</v>
       </c>
       <c r="O31" t="n">
-        <v>418.1856318563248</v>
+        <v>84.30874592103601</v>
       </c>
       <c r="P31" t="n">
-        <v>418.1856318563248</v>
+        <v>271.4837599719076</v>
       </c>
       <c r="Q31" t="n">
-        <v>49.9464792049564</v>
+        <v>219.8381709871101</v>
       </c>
       <c r="R31" t="n">
-        <v>5.615951549488948</v>
+        <v>5.615951549488944</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -37068,19 +37068,19 @@
         <v>50.85195676437969</v>
       </c>
       <c r="J32" t="n">
-        <v>112.8595291536269</v>
+        <v>112.8595291536268</v>
       </c>
       <c r="K32" t="n">
-        <v>169.1471783864346</v>
+        <v>169.1471783864347</v>
       </c>
       <c r="L32" t="n">
-        <v>209.8420318050159</v>
+        <v>209.8420318050158</v>
       </c>
       <c r="M32" t="n">
-        <v>233.4896926139916</v>
+        <v>233.4896926139917</v>
       </c>
       <c r="N32" t="n">
-        <v>237.2677999464443</v>
+        <v>237.2677999464441</v>
       </c>
       <c r="O32" t="n">
         <v>224.0452553667435</v>
@@ -37144,31 +37144,31 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>24.49580543289439</v>
+        <v>24.49580543289438</v>
       </c>
       <c r="J33" t="n">
-        <v>229.1759979427218</v>
+        <v>395.0550542837863</v>
       </c>
       <c r="K33" t="n">
         <v>114.8868877226589</v>
       </c>
       <c r="L33" t="n">
-        <v>154.4795984656607</v>
+        <v>154.4795984656608</v>
       </c>
       <c r="M33" t="n">
-        <v>180.2704050774915</v>
+        <v>180.2704050774914</v>
       </c>
       <c r="N33" t="n">
         <v>185.041626288561</v>
       </c>
       <c r="O33" t="n">
-        <v>169.27693723799</v>
+        <v>169.2769372379901</v>
       </c>
       <c r="P33" t="n">
         <v>135.8596658518925</v>
       </c>
       <c r="Q33" t="n">
-        <v>418.185631856325</v>
+        <v>252.3065755152606</v>
       </c>
       <c r="R33" t="n">
         <v>44.17358238319139</v>
@@ -37232,22 +37232,22 @@
         <v>346.8331089915197</v>
       </c>
       <c r="L34" t="n">
-        <v>88.67926619453442</v>
+        <v>266.66317371491</v>
       </c>
       <c r="M34" t="n">
         <v>93.49985245153209</v>
       </c>
       <c r="N34" t="n">
-        <v>418.1856318563249</v>
+        <v>91.27663494268063</v>
       </c>
       <c r="O34" t="n">
-        <v>84.30874592103601</v>
+        <v>84.30874592103589</v>
       </c>
       <c r="P34" t="n">
-        <v>269.260542463056</v>
+        <v>418.1856318563248</v>
       </c>
       <c r="Q34" t="n">
-        <v>219.8381709871103</v>
+        <v>219.8381709871101</v>
       </c>
       <c r="R34" t="n">
         <v>5.615951549488948</v>
@@ -37311,16 +37311,16 @@
         <v>169.1471783864346</v>
       </c>
       <c r="L35" t="n">
-        <v>209.8420318050158</v>
+        <v>209.8420318050159</v>
       </c>
       <c r="M35" t="n">
-        <v>233.4896926139917</v>
+        <v>233.4896926139916</v>
       </c>
       <c r="N35" t="n">
-        <v>237.2677999464441</v>
+        <v>237.2677999464443</v>
       </c>
       <c r="O35" t="n">
-        <v>224.0452553667435</v>
+        <v>224.0452553667433</v>
       </c>
       <c r="P35" t="n">
         <v>191.2174419853368</v>
@@ -37381,34 +37381,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>50.82274801921519</v>
+        <v>50.8227480192152</v>
       </c>
       <c r="J36" t="n">
-        <v>395.0550542837863</v>
+        <v>67.21836239872329</v>
       </c>
       <c r="K36" t="n">
-        <v>114.8868877226589</v>
+        <v>132.1612391709029</v>
       </c>
       <c r="L36" t="n">
         <v>154.4795984656607</v>
       </c>
       <c r="M36" t="n">
-        <v>180.2704050774914</v>
+        <v>180.2704050774915</v>
       </c>
       <c r="N36" t="n">
         <v>185.041626288561</v>
       </c>
       <c r="O36" t="n">
-        <v>169.2769372379901</v>
+        <v>169.27693723799</v>
       </c>
       <c r="P36" t="n">
         <v>135.8596658518925</v>
       </c>
       <c r="Q36" t="n">
-        <v>107.6232914195054</v>
+        <v>418.1856318563248</v>
       </c>
       <c r="R36" t="n">
-        <v>162.5299238926257</v>
+        <v>162.5299238926254</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37466,25 +37466,25 @@
         <v>129.6248678447853</v>
       </c>
       <c r="K37" t="n">
-        <v>219.2671751284131</v>
+        <v>346.8331089915197</v>
       </c>
       <c r="L37" t="n">
-        <v>88.67926619453442</v>
+        <v>266.6631737149096</v>
       </c>
       <c r="M37" t="n">
+        <v>93.49985245153209</v>
+      </c>
+      <c r="N37" t="n">
+        <v>91.27663494268063</v>
+      </c>
+      <c r="O37" t="n">
+        <v>84.30874592103589</v>
+      </c>
+      <c r="P37" t="n">
         <v>418.1856318563248</v>
       </c>
-      <c r="N37" t="n">
-        <v>418.1856318563248</v>
-      </c>
-      <c r="O37" t="n">
-        <v>84.30874592103601</v>
-      </c>
-      <c r="P37" t="n">
-        <v>72.14069692136991</v>
-      </c>
       <c r="Q37" t="n">
-        <v>219.8381709871101</v>
+        <v>219.8381709871103</v>
       </c>
       <c r="R37" t="n">
         <v>5.615951549488948</v>
@@ -37548,13 +37548,13 @@
         <v>169.1471783864346</v>
       </c>
       <c r="L38" t="n">
-        <v>209.8420318050159</v>
+        <v>209.8420318050158</v>
       </c>
       <c r="M38" t="n">
         <v>233.4896926139917</v>
       </c>
       <c r="N38" t="n">
-        <v>237.2677999464441</v>
+        <v>237.2677999464443</v>
       </c>
       <c r="O38" t="n">
         <v>224.0452553667435</v>
@@ -37621,7 +37621,7 @@
         <v>50.82274801921519</v>
       </c>
       <c r="J39" t="n">
-        <v>84.49271384696704</v>
+        <v>395.0550542837863</v>
       </c>
       <c r="K39" t="n">
         <v>114.8868877226589</v>
@@ -37630,19 +37630,19 @@
         <v>154.4795984656607</v>
       </c>
       <c r="M39" t="n">
-        <v>180.2704050774915</v>
+        <v>180.2704050774914</v>
       </c>
       <c r="N39" t="n">
         <v>185.041626288561</v>
       </c>
       <c r="O39" t="n">
-        <v>169.27693723799</v>
+        <v>169.2769372379901</v>
       </c>
       <c r="P39" t="n">
         <v>135.8596658518925</v>
       </c>
       <c r="Q39" t="n">
-        <v>418.1856318563248</v>
+        <v>107.6232914195054</v>
       </c>
       <c r="R39" t="n">
         <v>162.5299238926257</v>
@@ -37703,25 +37703,25 @@
         <v>129.6248678447853</v>
       </c>
       <c r="K40" t="n">
-        <v>346.8331089915197</v>
+        <v>69.29931649542308</v>
       </c>
       <c r="L40" t="n">
+        <v>88.67926619453442</v>
+      </c>
+      <c r="M40" t="n">
+        <v>93.49985245153209</v>
+      </c>
+      <c r="N40" t="n">
+        <v>212.9174490238639</v>
+      </c>
+      <c r="O40" t="n">
         <v>418.1856318563248</v>
       </c>
-      <c r="M40" t="n">
-        <v>288.0223292450719</v>
-      </c>
-      <c r="N40" t="n">
-        <v>91.27663494268063</v>
-      </c>
-      <c r="O40" t="n">
-        <v>84.30874592103601</v>
-      </c>
       <c r="P40" t="n">
-        <v>72.14069692136991</v>
+        <v>418.1856318563248</v>
       </c>
       <c r="Q40" t="n">
-        <v>219.8381709871103</v>
+        <v>219.8381709871101</v>
       </c>
       <c r="R40" t="n">
         <v>5.615951549488948</v>
@@ -37782,28 +37782,28 @@
         <v>112.8595291536268</v>
       </c>
       <c r="K41" t="n">
-        <v>169.1471783864347</v>
+        <v>169.1471783864346</v>
       </c>
       <c r="L41" t="n">
-        <v>209.8420318050158</v>
+        <v>209.8420318050159</v>
       </c>
       <c r="M41" t="n">
-        <v>233.4896926139917</v>
+        <v>233.4896926139916</v>
       </c>
       <c r="N41" t="n">
-        <v>237.2677999464441</v>
+        <v>237.2677999464443</v>
       </c>
       <c r="O41" t="n">
-        <v>224.0452553667435</v>
+        <v>224.0452553667433</v>
       </c>
       <c r="P41" t="n">
-        <v>191.2174419853366</v>
+        <v>191.2174419853368</v>
       </c>
       <c r="Q41" t="n">
         <v>143.5963354852204</v>
       </c>
       <c r="R41" t="n">
-        <v>83.52891675219394</v>
+        <v>83.52891675219416</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,13 +37855,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>24.49580543289439</v>
+        <v>50.82274801921519</v>
       </c>
       <c r="J42" t="n">
         <v>395.0550542837863</v>
       </c>
       <c r="K42" t="n">
-        <v>158.0185330254334</v>
+        <v>114.8868877226589</v>
       </c>
       <c r="L42" t="n">
         <v>154.4795984656607</v>
@@ -37879,10 +37879,10 @@
         <v>135.8596658518925</v>
       </c>
       <c r="Q42" t="n">
-        <v>90.818588703052</v>
+        <v>107.6232914195054</v>
       </c>
       <c r="R42" t="n">
-        <v>162.5299238926254</v>
+        <v>162.5299238926257</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37943,7 +37943,7 @@
         <v>346.8331089915197</v>
       </c>
       <c r="L43" t="n">
-        <v>278.8312227145756</v>
+        <v>88.67926619453442</v>
       </c>
       <c r="M43" t="n">
         <v>93.49985245153209</v>
@@ -37952,13 +37952,13 @@
         <v>91.27663494268063</v>
       </c>
       <c r="O43" t="n">
+        <v>262.2926534414115</v>
+      </c>
+      <c r="P43" t="n">
         <v>418.1856318563248</v>
       </c>
-      <c r="P43" t="n">
-        <v>72.14069692136991</v>
-      </c>
       <c r="Q43" t="n">
-        <v>219.8381709871103</v>
+        <v>219.8381709871101</v>
       </c>
       <c r="R43" t="n">
         <v>5.615951549488948</v>
@@ -38016,31 +38016,31 @@
         <v>50.85195676437969</v>
       </c>
       <c r="J44" t="n">
-        <v>112.8595291536269</v>
+        <v>112.8595291536268</v>
       </c>
       <c r="K44" t="n">
         <v>169.1471783864346</v>
       </c>
       <c r="L44" t="n">
-        <v>209.8420318050158</v>
+        <v>209.8420318050159</v>
       </c>
       <c r="M44" t="n">
-        <v>233.4896926139913</v>
+        <v>233.4896926139916</v>
       </c>
       <c r="N44" t="n">
         <v>237.2677999464443</v>
       </c>
       <c r="O44" t="n">
-        <v>224.0452553667435</v>
+        <v>224.0452553667433</v>
       </c>
       <c r="P44" t="n">
         <v>191.2174419853368</v>
       </c>
       <c r="Q44" t="n">
-        <v>143.5963354852202</v>
+        <v>143.5963354852204</v>
       </c>
       <c r="R44" t="n">
-        <v>83.52891675219394</v>
+        <v>83.52891675219416</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38098,7 +38098,7 @@
         <v>395.0550542837863</v>
       </c>
       <c r="K45" t="n">
-        <v>114.8868877226589</v>
+        <v>131.6915904391124</v>
       </c>
       <c r="L45" t="n">
         <v>154.4795984656607</v>
@@ -38116,10 +38116,10 @@
         <v>135.8596658518925</v>
       </c>
       <c r="Q45" t="n">
-        <v>107.6232914195059</v>
+        <v>90.818588703052</v>
       </c>
       <c r="R45" t="n">
-        <v>162.5299238926254</v>
+        <v>162.5299238926257</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
